--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DCB340-421D-4E59-A9F5-2EA878901553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B510D-C2F4-4EB1-8069-BE0C0DBCA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="164">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -682,6 +682,30 @@
   </si>
   <si>
     <t>SetEventsStatus</t>
+  </si>
+  <si>
+    <t>{"phase_name":"CEAO's Designation Review","work_type_id": 1, "ea_act_id": 3, "event_name": "CEAO's Designation Application Received", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of Draft CEAO's Designation Application", "start_at": 28 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Draft CEAO's Designation Application Initial Review", "start_at": 35 }</t>
+  </si>
+  <si>
+    <t>{"is_active": false}</t>
+  </si>
+  <si>
+    <t>{"work_state": "COMPLETED"}</t>
+  </si>
+  <si>
+    <t>{"work_state": "TERMINATED"}</t>
+  </si>
+  <si>
+    <t>{"work_state": "WITHDRAWN"}</t>
+  </si>
+  <si>
+    <t>{"start_date_locked": true}</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1577,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3019,10 +3043,10 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3078,7 +3102,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3102,7 +3126,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -3126,7 +3150,7 @@
         <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -3150,7 +3174,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -3174,7 +3198,7 @@
         <v>90</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -3198,7 +3222,7 @@
         <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -3222,7 +3246,7 @@
         <v>94</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -3246,7 +3270,7 @@
         <v>96</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -3270,7 +3294,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -3294,7 +3318,7 @@
         <v>90</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -3318,7 +3342,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -3342,7 +3366,7 @@
         <v>94</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -3366,7 +3390,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -3390,7 +3414,7 @@
         <v>90</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -3414,7 +3438,7 @@
         <v>92</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -3438,7 +3462,7 @@
         <v>94</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -3462,7 +3486,7 @@
         <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
@@ -3486,7 +3510,7 @@
         <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
@@ -3510,7 +3534,7 @@
         <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
@@ -3534,7 +3558,7 @@
         <v>94</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
@@ -3558,7 +3582,7 @@
         <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
@@ -3582,7 +3606,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
@@ -3630,7 +3654,7 @@
         <v>94</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
@@ -3654,7 +3678,7 @@
         <v>98</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
@@ -3702,7 +3726,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
@@ -3726,7 +3750,7 @@
         <v>94</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>

--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B510D-C2F4-4EB1-8069-BE0C0DBCA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C3EA6-1425-46EC-AEDB-A29AC63E6178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -306,9 +304,6 @@
     <t>EventPosition</t>
   </si>
   <si>
-    <t>MutipleDays</t>
-  </si>
-  <si>
     <t>StartAt</t>
   </si>
   <si>
@@ -706,6 +701,9 @@
   </si>
   <si>
     <t>{"start_date_locked": true}</t>
+  </si>
+  <si>
+    <t>MultipleDays</t>
   </si>
 </sst>
 </file>
@@ -1257,55 +1255,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1326,18 +1324,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1389,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1441,103 +1439,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
   </sheetData>
@@ -1573,29 +1571,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1621,22 +1619,22 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1644,20 +1642,20 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Intake</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>0</v>
@@ -1675,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1683,20 +1681,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Intake</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>0</v>
@@ -1714,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1722,20 +1720,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Intake</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>0</v>
@@ -1753,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1761,20 +1759,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Intake</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
@@ -1792,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1800,20 +1798,20 @@
         <v>1</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>IF((C6=""),"",VLOOKUP(C6,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Intake</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>0</v>
@@ -1831,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1839,20 +1837,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Intake</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="7" t="b">
         <v>0</v>
@@ -1870,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1878,20 +1876,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Intake</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I8" s="7" t="b">
         <v>0</v>
@@ -1909,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1917,20 +1915,20 @@
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I9" s="7" t="b">
         <v>0</v>
@@ -1948,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1956,20 +1954,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I10" s="7" t="b">
         <v>0</v>
@@ -1987,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1995,20 +1993,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>0</v>
@@ -2026,7 +2024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2034,20 +2032,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>0</v>
@@ -2065,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2076,20 +2074,20 @@
         <v>2</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7" t="b">
         <v>0</v>
@@ -2107,7 +2105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2115,20 +2113,20 @@
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7" t="b">
         <v>0</v>
@@ -2146,7 +2144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2157,20 +2155,20 @@
         <v>2</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>IF((C15=""),"",VLOOKUP(C15,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="7" t="b">
         <v>0</v>
@@ -2188,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2196,20 +2194,20 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>IF((C16=""),"",VLOOKUP(C16,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I16" s="7" t="b">
         <v>0</v>
@@ -2227,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2235,20 +2233,20 @@
         <v>2</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IF((C17=""),"",VLOOKUP(C17,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Review</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I17" s="7" t="b">
         <v>0</v>
@@ -2266,7 +2264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2274,20 +2272,20 @@
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I18" s="7" t="b">
         <v>0</v>
@@ -2305,7 +2303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2313,20 +2311,20 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I19" s="7" t="b">
         <v>0</v>
@@ -2344,7 +2342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2355,20 +2353,20 @@
         <v>3</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="6" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="7" t="b">
         <v>0</v>
@@ -2386,7 +2384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2394,20 +2392,20 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I21" s="7" t="b">
         <v>0</v>
@@ -2425,7 +2423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2433,20 +2431,20 @@
         <v>3</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7" t="b">
         <v>0</v>
@@ -2464,7 +2462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2475,20 +2473,20 @@
         <v>3</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>IF((C23=""),"",VLOOKUP(C23,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7" t="b">
         <v>0</v>
@@ -2506,7 +2504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2514,20 +2512,20 @@
         <v>3</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="6" t="str">
         <f>IF((C24=""),"",VLOOKUP(C24,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="7" t="b">
         <v>0</v>
@@ -2545,7 +2543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2556,20 +2554,20 @@
         <v>3</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="6" t="str">
         <f>IF((C25=""),"",VLOOKUP(C25,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="7" t="b">
         <v>0</v>
@@ -2587,7 +2585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2595,20 +2593,20 @@
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="6" t="str">
         <f>IF((C26=""),"",VLOOKUP(C26,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I26" s="7" t="b">
         <v>0</v>
@@ -2626,7 +2624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2641,13 +2639,13 @@
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="7" t="b">
         <v>0</v>
@@ -2665,7 +2663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2676,20 +2674,20 @@
         <v>3</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="6" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I28" s="7" t="b">
         <v>0</v>
@@ -2707,7 +2705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2718,20 +2716,20 @@
         <v>3</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="6" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$4,2,FALSE))</f>
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="7" t="b">
         <v>0</v>
@@ -2815,33 +2813,33 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2853,13 +2851,13 @@
         <v>Draft CEAO's Designation Application Initial Review</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2871,13 +2869,13 @@
         <v>Draft CEAO's Designation Application Initial Review</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2889,13 +2887,13 @@
         <v>Project Withdrawn</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2907,13 +2905,13 @@
         <v>CEAO's Designation Application Received</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2925,13 +2923,13 @@
         <v>CEAO's Designation Terminated s.39(d)</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2943,13 +2941,13 @@
         <v>CEAO's Designation Withdrawn</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2961,13 +2959,13 @@
         <v>CEAO's Designation Terminated s.39(d)</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2979,13 +2977,13 @@
         <v>CEAO's Designation Withdrawn</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2997,13 +2995,13 @@
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>CEAO's Designation Decision</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3042,49 +3040,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3096,19 +3094,19 @@
         <v>Initial Review of "Draft" CEAO's Designation is POSITIVE</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3120,19 +3118,19 @@
         <v>Initial Review of "Draft" CEAO's Designation is NEGATIVE</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>86</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3144,19 +3142,19 @@
         <v>Initial Review of "Draft" CEAO's Designation is NEGATIVE</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3168,19 +3166,19 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3192,19 +3190,19 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3216,19 +3214,19 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>92</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3240,19 +3238,19 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3264,19 +3262,19 @@
         <v>Starts the "clock" for CEAO's Designation</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3288,19 +3286,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3312,19 +3310,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3336,19 +3334,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3360,19 +3358,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3384,19 +3382,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3408,19 +3406,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3432,19 +3430,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>92</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3456,19 +3454,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3480,19 +3478,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3504,19 +3502,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3528,19 +3526,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3552,19 +3550,19 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3576,19 +3574,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3600,19 +3598,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3624,19 +3622,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>92</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3648,19 +3646,19 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3672,19 +3670,19 @@
         <v>Designate Project as Reviewable</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3696,19 +3694,19 @@
         <v>Designate Project as Reviewable</v>
       </c>
       <c r="D27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3720,19 +3718,19 @@
         <v>Decline to Designate Project as Reviewable</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3744,19 +3742,19 @@
         <v>Decline to Designate Project as Reviewable</v>
       </c>
       <c r="D29" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3766,13 +3764,13 @@
         <v/>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3782,13 +3780,13 @@
         <v/>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3798,13 +3796,13 @@
         <v/>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3814,13 +3812,13 @@
         <v/>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3830,13 +3828,13 @@
         <v/>
       </c>
       <c r="F34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3846,13 +3844,13 @@
         <v/>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3862,13 +3860,13 @@
         <v/>
       </c>
       <c r="F36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3878,13 +3876,13 @@
         <v/>
       </c>
       <c r="F37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3894,13 +3892,13 @@
         <v/>
       </c>
       <c r="F38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3910,13 +3908,13 @@
         <v/>
       </c>
       <c r="F39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3926,13 +3924,13 @@
         <v/>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3942,13 +3940,13 @@
         <v/>
       </c>
       <c r="F41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3958,13 +3956,13 @@
         <v/>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3974,13 +3972,13 @@
         <v/>
       </c>
       <c r="F43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3990,13 +3988,13 @@
         <v/>
       </c>
       <c r="F44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4006,13 +4004,13 @@
         <v/>
       </c>
       <c r="F45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4022,13 +4020,13 @@
         <v/>
       </c>
       <c r="F46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4038,13 +4036,13 @@
         <v/>
       </c>
       <c r="F47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4054,13 +4052,13 @@
         <v/>
       </c>
       <c r="F48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4070,13 +4068,13 @@
         <v/>
       </c>
       <c r="F49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4086,13 +4084,13 @@
         <v/>
       </c>
       <c r="F50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4102,13 +4100,13 @@
         <v/>
       </c>
       <c r="F51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4118,13 +4116,13 @@
         <v/>
       </c>
       <c r="F52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4134,13 +4132,13 @@
         <v/>
       </c>
       <c r="F53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4150,13 +4148,13 @@
         <v/>
       </c>
       <c r="F54" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4166,13 +4164,13 @@
         <v/>
       </c>
       <c r="F55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4182,13 +4180,13 @@
         <v/>
       </c>
       <c r="F56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4198,13 +4196,13 @@
         <v/>
       </c>
       <c r="F57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4214,13 +4212,13 @@
         <v/>
       </c>
       <c r="F58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4230,13 +4228,13 @@
         <v/>
       </c>
       <c r="F59" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4246,13 +4244,13 @@
         <v/>
       </c>
       <c r="F60" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4262,13 +4260,13 @@
         <v/>
       </c>
       <c r="F61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4278,13 +4276,13 @@
         <v/>
       </c>
       <c r="F62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4294,13 +4292,13 @@
         <v/>
       </c>
       <c r="F63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4310,13 +4308,13 @@
         <v/>
       </c>
       <c r="F64" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4326,13 +4324,13 @@
         <v/>
       </c>
       <c r="F65" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4342,13 +4340,13 @@
         <v/>
       </c>
       <c r="F66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4358,13 +4356,13 @@
         <v/>
       </c>
       <c r="F67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4374,13 +4372,13 @@
         <v/>
       </c>
       <c r="F68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4390,13 +4388,13 @@
         <v/>
       </c>
       <c r="F69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4406,13 +4404,13 @@
         <v/>
       </c>
       <c r="F70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4422,13 +4420,13 @@
         <v/>
       </c>
       <c r="F71" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4438,13 +4436,13 @@
         <v/>
       </c>
       <c r="F72" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4454,13 +4452,13 @@
         <v/>
       </c>
       <c r="F73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4470,13 +4468,13 @@
         <v/>
       </c>
       <c r="F74" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4486,13 +4484,13 @@
         <v/>
       </c>
       <c r="F75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4502,13 +4500,13 @@
         <v/>
       </c>
       <c r="F76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4518,13 +4516,13 @@
         <v/>
       </c>
       <c r="F77" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4534,13 +4532,13 @@
         <v/>
       </c>
       <c r="F78" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4550,13 +4548,13 @@
         <v/>
       </c>
       <c r="F79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4566,13 +4564,13 @@
         <v/>
       </c>
       <c r="F80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4582,13 +4580,13 @@
         <v/>
       </c>
       <c r="F81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4598,13 +4596,13 @@
         <v/>
       </c>
       <c r="F82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4614,13 +4612,13 @@
         <v/>
       </c>
       <c r="F83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4630,13 +4628,13 @@
         <v/>
       </c>
       <c r="F84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4646,13 +4644,13 @@
         <v/>
       </c>
       <c r="F85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4662,13 +4660,13 @@
         <v/>
       </c>
       <c r="F86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4678,13 +4676,13 @@
         <v/>
       </c>
       <c r="F87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4694,13 +4692,13 @@
         <v/>
       </c>
       <c r="F88" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4710,13 +4708,13 @@
         <v/>
       </c>
       <c r="F89" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4726,13 +4724,13 @@
         <v/>
       </c>
       <c r="F90" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4742,13 +4740,13 @@
         <v/>
       </c>
       <c r="F91" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4758,13 +4756,13 @@
         <v/>
       </c>
       <c r="F92" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4774,13 +4772,13 @@
         <v/>
       </c>
       <c r="F93" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4790,13 +4788,13 @@
         <v/>
       </c>
       <c r="F94" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4806,13 +4804,13 @@
         <v/>
       </c>
       <c r="F95" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4822,13 +4820,13 @@
         <v/>
       </c>
       <c r="F96" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4838,13 +4836,13 @@
         <v/>
       </c>
       <c r="F97" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4854,13 +4852,13 @@
         <v/>
       </c>
       <c r="F98" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4870,13 +4868,13 @@
         <v/>
       </c>
       <c r="F99" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4886,13 +4884,13 @@
         <v/>
       </c>
       <c r="F100" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4902,13 +4900,13 @@
         <v/>
       </c>
       <c r="F101" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4918,13 +4916,13 @@
         <v/>
       </c>
       <c r="F102" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4934,13 +4932,13 @@
         <v/>
       </c>
       <c r="F103" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4950,13 +4948,13 @@
         <v/>
       </c>
       <c r="F104" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4966,13 +4964,13 @@
         <v/>
       </c>
       <c r="F105" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4982,13 +4980,13 @@
         <v/>
       </c>
       <c r="F106" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4998,13 +4996,13 @@
         <v/>
       </c>
       <c r="F107" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -5014,13 +5012,13 @@
         <v/>
       </c>
       <c r="F108" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -5030,13 +5028,13 @@
         <v/>
       </c>
       <c r="F109" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -5046,13 +5044,13 @@
         <v/>
       </c>
       <c r="F110" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -5062,13 +5060,13 @@
         <v/>
       </c>
       <c r="F111" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -5078,13 +5076,13 @@
         <v/>
       </c>
       <c r="F112" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -5094,13 +5092,13 @@
         <v/>
       </c>
       <c r="F113" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -5110,13 +5108,13 @@
         <v/>
       </c>
       <c r="F114" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -5126,13 +5124,13 @@
         <v/>
       </c>
       <c r="F115" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5142,13 +5140,13 @@
         <v/>
       </c>
       <c r="F116" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5158,13 +5156,13 @@
         <v/>
       </c>
       <c r="F117" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5174,13 +5172,13 @@
         <v/>
       </c>
       <c r="F118" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5190,13 +5188,13 @@
         <v/>
       </c>
       <c r="F119" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5206,13 +5204,13 @@
         <v/>
       </c>
       <c r="F120" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5222,13 +5220,13 @@
         <v/>
       </c>
       <c r="F121" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5238,13 +5236,13 @@
         <v/>
       </c>
       <c r="F122" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5254,13 +5252,13 @@
         <v/>
       </c>
       <c r="F123" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5270,13 +5268,13 @@
         <v/>
       </c>
       <c r="F124" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5286,13 +5284,13 @@
         <v/>
       </c>
       <c r="F125" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5302,13 +5300,13 @@
         <v/>
       </c>
       <c r="F126" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5318,13 +5316,13 @@
         <v/>
       </c>
       <c r="F127" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5334,13 +5332,13 @@
         <v/>
       </c>
       <c r="F128" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5350,13 +5348,13 @@
         <v/>
       </c>
       <c r="F129" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5366,13 +5364,13 @@
         <v/>
       </c>
       <c r="F130" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5382,13 +5380,13 @@
         <v/>
       </c>
       <c r="F131" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5398,13 +5396,13 @@
         <v/>
       </c>
       <c r="F132" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5414,13 +5412,13 @@
         <v/>
       </c>
       <c r="F133" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5430,13 +5428,13 @@
         <v/>
       </c>
       <c r="F134" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5446,13 +5444,13 @@
         <v/>
       </c>
       <c r="F135" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5462,13 +5460,13 @@
         <v/>
       </c>
       <c r="F136" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5478,13 +5476,13 @@
         <v/>
       </c>
       <c r="F137" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5494,13 +5492,13 @@
         <v/>
       </c>
       <c r="F138" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5510,13 +5508,13 @@
         <v/>
       </c>
       <c r="F139" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5526,13 +5524,13 @@
         <v/>
       </c>
       <c r="F140" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5542,13 +5540,13 @@
         <v/>
       </c>
       <c r="F141" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5558,13 +5556,13 @@
         <v/>
       </c>
       <c r="F142" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5574,13 +5572,13 @@
         <v/>
       </c>
       <c r="F143" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5590,13 +5588,13 @@
         <v/>
       </c>
       <c r="F144" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5606,13 +5604,13 @@
         <v/>
       </c>
       <c r="F145" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5622,13 +5620,13 @@
         <v/>
       </c>
       <c r="F146" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5638,13 +5636,13 @@
         <v/>
       </c>
       <c r="F147" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5654,13 +5652,13 @@
         <v/>
       </c>
       <c r="F148" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5670,13 +5668,13 @@
         <v/>
       </c>
       <c r="F149" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5686,13 +5684,13 @@
         <v/>
       </c>
       <c r="F150" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5702,13 +5700,13 @@
         <v/>
       </c>
       <c r="F151" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5718,13 +5716,13 @@
         <v/>
       </c>
       <c r="F152" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5734,13 +5732,13 @@
         <v/>
       </c>
       <c r="F153" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5750,13 +5748,13 @@
         <v/>
       </c>
       <c r="F154" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5766,13 +5764,13 @@
         <v/>
       </c>
       <c r="F155" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5782,13 +5780,13 @@
         <v/>
       </c>
       <c r="F156" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5798,13 +5796,13 @@
         <v/>
       </c>
       <c r="F157" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5814,13 +5812,13 @@
         <v/>
       </c>
       <c r="F158" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5830,13 +5828,13 @@
         <v/>
       </c>
       <c r="F159" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5846,13 +5844,13 @@
         <v/>
       </c>
       <c r="F160" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5862,13 +5860,13 @@
         <v/>
       </c>
       <c r="F161" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5878,13 +5876,13 @@
         <v/>
       </c>
       <c r="F162" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5894,13 +5892,13 @@
         <v/>
       </c>
       <c r="F163" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5910,13 +5908,13 @@
         <v/>
       </c>
       <c r="F164" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5926,13 +5924,13 @@
         <v/>
       </c>
       <c r="F165" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5942,13 +5940,13 @@
         <v/>
       </c>
       <c r="F166" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5958,13 +5956,13 @@
         <v/>
       </c>
       <c r="F167" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5974,13 +5972,13 @@
         <v/>
       </c>
       <c r="F168" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5990,13 +5988,13 @@
         <v/>
       </c>
       <c r="F169" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -6006,13 +6004,13 @@
         <v/>
       </c>
       <c r="F170" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6022,13 +6020,13 @@
         <v/>
       </c>
       <c r="F171" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6038,13 +6036,13 @@
         <v/>
       </c>
       <c r="F172" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6054,13 +6052,13 @@
         <v/>
       </c>
       <c r="F173" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6070,13 +6068,13 @@
         <v/>
       </c>
       <c r="F174" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6086,13 +6084,13 @@
         <v/>
       </c>
       <c r="F175" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6102,13 +6100,13 @@
         <v/>
       </c>
       <c r="F176" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6118,13 +6116,13 @@
         <v/>
       </c>
       <c r="F177" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6134,13 +6132,13 @@
         <v/>
       </c>
       <c r="F178" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -6150,13 +6148,13 @@
         <v/>
       </c>
       <c r="F179" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -6166,13 +6164,13 @@
         <v/>
       </c>
       <c r="F180" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -6182,13 +6180,13 @@
         <v/>
       </c>
       <c r="F181" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -6198,13 +6196,13 @@
         <v/>
       </c>
       <c r="F182" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -6214,13 +6212,13 @@
         <v/>
       </c>
       <c r="F183" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -6230,13 +6228,13 @@
         <v/>
       </c>
       <c r="F184" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -6246,13 +6244,13 @@
         <v/>
       </c>
       <c r="F185" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -6262,13 +6260,13 @@
         <v/>
       </c>
       <c r="F186" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -6278,13 +6276,13 @@
         <v/>
       </c>
       <c r="F187" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -6294,13 +6292,13 @@
         <v/>
       </c>
       <c r="F188" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -6310,13 +6308,13 @@
         <v/>
       </c>
       <c r="F189" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -6326,13 +6324,13 @@
         <v/>
       </c>
       <c r="F190" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -6342,13 +6340,13 @@
         <v/>
       </c>
       <c r="F191" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -6358,13 +6356,13 @@
         <v/>
       </c>
       <c r="F192" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -6374,13 +6372,13 @@
         <v/>
       </c>
       <c r="F193" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -6390,13 +6388,13 @@
         <v/>
       </c>
       <c r="F194" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -6406,13 +6404,13 @@
         <v/>
       </c>
       <c r="F195" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -6422,13 +6420,13 @@
         <v/>
       </c>
       <c r="F196" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -6438,13 +6436,13 @@
         <v/>
       </c>
       <c r="F197" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -6454,13 +6452,13 @@
         <v/>
       </c>
       <c r="F198" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -6470,13 +6468,13 @@
         <v/>
       </c>
       <c r="F199" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -6486,13 +6484,13 @@
         <v/>
       </c>
       <c r="F200" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -6502,13 +6500,13 @@
         <v/>
       </c>
       <c r="F201" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -6518,13 +6516,13 @@
         <v/>
       </c>
       <c r="F202" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -6534,13 +6532,13 @@
         <v/>
       </c>
       <c r="F203" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -6550,13 +6548,13 @@
         <v/>
       </c>
       <c r="F204" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -6566,13 +6564,13 @@
         <v/>
       </c>
       <c r="F205" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -6582,13 +6580,13 @@
         <v/>
       </c>
       <c r="F206" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -6598,13 +6596,13 @@
         <v/>
       </c>
       <c r="F207" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -6614,13 +6612,13 @@
         <v/>
       </c>
       <c r="F208" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -6630,13 +6628,13 @@
         <v/>
       </c>
       <c r="F209" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -6646,13 +6644,13 @@
         <v/>
       </c>
       <c r="F210" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -6662,13 +6660,13 @@
         <v/>
       </c>
       <c r="F211" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -6678,13 +6676,13 @@
         <v/>
       </c>
       <c r="F212" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -6694,13 +6692,13 @@
         <v/>
       </c>
       <c r="F213" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -6710,13 +6708,13 @@
         <v/>
       </c>
       <c r="F214" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -6726,13 +6724,13 @@
         <v/>
       </c>
       <c r="F215" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -6742,13 +6740,13 @@
         <v/>
       </c>
       <c r="F216" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -6758,13 +6756,13 @@
         <v/>
       </c>
       <c r="F217" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -6774,13 +6772,13 @@
         <v/>
       </c>
       <c r="F218" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -6790,13 +6788,13 @@
         <v/>
       </c>
       <c r="F219" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -6806,13 +6804,13 @@
         <v/>
       </c>
       <c r="F220" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -6822,13 +6820,13 @@
         <v/>
       </c>
       <c r="F221" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -6838,13 +6836,13 @@
         <v/>
       </c>
       <c r="F222" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -6854,13 +6852,13 @@
         <v/>
       </c>
       <c r="F223" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -6870,13 +6868,13 @@
         <v/>
       </c>
       <c r="F224" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G224" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -6886,13 +6884,13 @@
         <v/>
       </c>
       <c r="F225" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -6902,13 +6900,13 @@
         <v/>
       </c>
       <c r="F226" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G226" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -6918,13 +6916,13 @@
         <v/>
       </c>
       <c r="F227" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -6934,13 +6932,13 @@
         <v/>
       </c>
       <c r="F228" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -6950,13 +6948,13 @@
         <v/>
       </c>
       <c r="F229" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -6966,13 +6964,13 @@
         <v/>
       </c>
       <c r="F230" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -6982,13 +6980,13 @@
         <v/>
       </c>
       <c r="F231" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -6998,13 +6996,13 @@
         <v/>
       </c>
       <c r="F232" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -7014,13 +7012,13 @@
         <v/>
       </c>
       <c r="F233" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -7030,13 +7028,13 @@
         <v/>
       </c>
       <c r="F234" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -7046,13 +7044,13 @@
         <v/>
       </c>
       <c r="F235" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -7062,13 +7060,13 @@
         <v/>
       </c>
       <c r="F236" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -7078,13 +7076,13 @@
         <v/>
       </c>
       <c r="F237" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -7094,13 +7092,13 @@
         <v/>
       </c>
       <c r="F238" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -7110,13 +7108,13 @@
         <v/>
       </c>
       <c r="F239" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -7126,13 +7124,13 @@
         <v/>
       </c>
       <c r="F240" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G240" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -7142,13 +7140,13 @@
         <v/>
       </c>
       <c r="F241" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -7158,13 +7156,13 @@
         <v/>
       </c>
       <c r="F242" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G242" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -7174,13 +7172,13 @@
         <v/>
       </c>
       <c r="F243" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -7190,13 +7188,13 @@
         <v/>
       </c>
       <c r="F244" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -7206,13 +7204,13 @@
         <v/>
       </c>
       <c r="F245" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -7222,13 +7220,13 @@
         <v/>
       </c>
       <c r="F246" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -7238,13 +7236,13 @@
         <v/>
       </c>
       <c r="F247" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -7254,13 +7252,13 @@
         <v/>
       </c>
       <c r="F248" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -7270,13 +7268,13 @@
         <v/>
       </c>
       <c r="F249" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -7286,13 +7284,13 @@
         <v/>
       </c>
       <c r="F250" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -7302,13 +7300,13 @@
         <v/>
       </c>
       <c r="F251" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -7318,13 +7316,13 @@
         <v/>
       </c>
       <c r="F252" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -7334,13 +7332,13 @@
         <v/>
       </c>
       <c r="F253" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -7350,13 +7348,13 @@
         <v/>
       </c>
       <c r="F254" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -7366,13 +7364,13 @@
         <v/>
       </c>
       <c r="F255" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -7382,13 +7380,13 @@
         <v/>
       </c>
       <c r="F256" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G256" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -7398,13 +7396,13 @@
         <v/>
       </c>
       <c r="F257" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -7414,13 +7412,13 @@
         <v/>
       </c>
       <c r="F258" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G258" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -7430,13 +7428,13 @@
         <v/>
       </c>
       <c r="F259" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -7446,13 +7444,13 @@
         <v/>
       </c>
       <c r="F260" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -7462,13 +7460,13 @@
         <v/>
       </c>
       <c r="F261" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -7478,13 +7476,13 @@
         <v/>
       </c>
       <c r="F262" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -7494,13 +7492,13 @@
         <v/>
       </c>
       <c r="F263" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -7510,13 +7508,13 @@
         <v/>
       </c>
       <c r="F264" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -7526,13 +7524,13 @@
         <v/>
       </c>
       <c r="F265" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -7542,13 +7540,13 @@
         <v/>
       </c>
       <c r="F266" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -7558,13 +7556,13 @@
         <v/>
       </c>
       <c r="F267" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -7574,13 +7572,13 @@
         <v/>
       </c>
       <c r="F268" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -7590,13 +7588,13 @@
         <v/>
       </c>
       <c r="F269" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -7606,13 +7604,13 @@
         <v/>
       </c>
       <c r="F270" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -7622,13 +7620,13 @@
         <v/>
       </c>
       <c r="F271" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -7638,13 +7636,13 @@
         <v/>
       </c>
       <c r="F272" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G272" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -7654,13 +7652,13 @@
         <v/>
       </c>
       <c r="F273" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -7670,13 +7668,13 @@
         <v/>
       </c>
       <c r="F274" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G274" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -7686,13 +7684,13 @@
         <v/>
       </c>
       <c r="F275" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -7702,13 +7700,13 @@
         <v/>
       </c>
       <c r="F276" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -7718,13 +7716,13 @@
         <v/>
       </c>
       <c r="F277" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -7734,13 +7732,13 @@
         <v/>
       </c>
       <c r="F278" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -7750,13 +7748,13 @@
         <v/>
       </c>
       <c r="F279" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -7766,13 +7764,13 @@
         <v/>
       </c>
       <c r="F280" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -7782,13 +7780,13 @@
         <v/>
       </c>
       <c r="F281" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -7798,13 +7796,13 @@
         <v/>
       </c>
       <c r="F282" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -7814,13 +7812,13 @@
         <v/>
       </c>
       <c r="F283" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -7830,13 +7828,13 @@
         <v/>
       </c>
       <c r="F284" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -7846,13 +7844,13 @@
         <v/>
       </c>
       <c r="F285" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -7862,13 +7860,13 @@
         <v/>
       </c>
       <c r="F286" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -7878,13 +7876,13 @@
         <v/>
       </c>
       <c r="F287" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -7894,13 +7892,13 @@
         <v/>
       </c>
       <c r="F288" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G288" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -7910,13 +7908,13 @@
         <v/>
       </c>
       <c r="F289" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -7926,13 +7924,13 @@
         <v/>
       </c>
       <c r="F290" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G290" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -7942,13 +7940,13 @@
         <v/>
       </c>
       <c r="F291" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -7958,13 +7956,13 @@
         <v/>
       </c>
       <c r="F292" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -7974,13 +7972,13 @@
         <v/>
       </c>
       <c r="F293" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -7990,13 +7988,13 @@
         <v/>
       </c>
       <c r="F294" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -8006,13 +8004,13 @@
         <v/>
       </c>
       <c r="F295" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -8022,13 +8020,13 @@
         <v/>
       </c>
       <c r="F296" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -8038,13 +8036,13 @@
         <v/>
       </c>
       <c r="F297" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -8054,13 +8052,13 @@
         <v/>
       </c>
       <c r="F298" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -8070,13 +8068,13 @@
         <v/>
       </c>
       <c r="F299" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -8086,13 +8084,13 @@
         <v/>
       </c>
       <c r="F300" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -8102,7 +8100,7 @@
         <v/>
       </c>
       <c r="F301" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G301" s="3">
         <v>300</v>
@@ -8134,41 +8132,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="4"/>
-    <col min="60" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.85546875" style="4"/>
+    <col min="60" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -8177,27 +8175,27 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -8240,9 +8238,9 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -8251,417 +8249,417 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="S4" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="H13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="H14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="H15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="2" t="s">
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="2" t="s">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="2" t="s">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="2" t="s">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="2" t="s">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="2" t="s">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="2" t="s">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="2" t="s">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="2" t="s">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="2" t="s">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="2" t="s">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="2" t="s">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="2" t="s">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I37" s="2" t="s">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\aot\EPIC-FLOW\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C3EA6-1425-46EC-AEDB-A29AC63E6178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC7B9CE-765E-44D5-941D-167A6D0F4416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -679,15 +679,6 @@
     <t>SetEventsStatus</t>
   </si>
   <si>
-    <t>{"phase_name":"CEAO's Designation Review","work_type_id": 1, "ea_act_id": 3, "event_name": "CEAO's Designation Application Received", "start_at": 1 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Submission of Draft CEAO's Designation Application", "start_at": 28 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 1, "ea_act_id": 3, "event_name": "Draft CEAO's Designation Application Initial Review", "start_at": 35 }</t>
-  </si>
-  <si>
     <t>{"is_active": false}</t>
   </si>
   <si>
@@ -704,6 +695,15 @@
   </si>
   <si>
     <t>MultipleDays</t>
+  </si>
+  <si>
+    <t>{"phase_name":"CEAO's Designation Review","work_type_id": 3, "ea_act_id": 3, "event_name": "CEAO's Designation Application Received", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 3, "ea_act_id": 3, "event_name": "Submission of Draft CEAO's Designation Application", "start_at": 28 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 3, "ea_act_id": 3, "event_name": "Draft CEAO's Designation Application Initial Review", "start_at": 35 }</t>
   </si>
 </sst>
 </file>
@@ -1255,55 +1255,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1324,18 +1324,18 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1439,103 +1439,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38"/>
     </row>
   </sheetData>
@@ -1571,29 +1571,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -1634,7 +1634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2813,16 +2813,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3040,26 +3040,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3100,13 +3100,13 @@
         <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3124,13 +3124,13 @@
         <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3148,13 +3148,13 @@
         <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3172,13 +3172,13 @@
         <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3196,13 +3196,13 @@
         <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3220,13 +3220,13 @@
         <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3244,13 +3244,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3268,13 +3268,13 @@
         <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3292,13 +3292,13 @@
         <v>88</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3316,13 +3316,13 @@
         <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3340,13 +3340,13 @@
         <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3364,13 +3364,13 @@
         <v>93</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3388,13 +3388,13 @@
         <v>88</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3412,13 +3412,13 @@
         <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3436,13 +3436,13 @@
         <v>91</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3460,13 +3460,13 @@
         <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3484,13 +3484,13 @@
         <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3508,13 +3508,13 @@
         <v>89</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3532,13 +3532,13 @@
         <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3556,13 +3556,13 @@
         <v>93</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3580,13 +3580,13 @@
         <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3604,13 +3604,13 @@
         <v>89</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3652,13 +3652,13 @@
         <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3676,13 +3676,13 @@
         <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3724,13 +3724,13 @@
         <v>97</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3748,13 +3748,13 @@
         <v>93</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -8132,34 +8132,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.7109375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.85546875" style="4"/>
-    <col min="60" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.6640625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.88671875" style="4"/>
+    <col min="60" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -8238,7 +8238,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>105</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>115</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>122</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>125</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>129</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>131</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>132</v>
       </c>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>135</v>
       </c>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>137</v>
       </c>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="4" t="s">
         <v>40</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>40</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="4" t="s">
         <v>40</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="s">
         <v>40</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="4" t="s">
         <v>40</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="s">
         <v>40</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>40</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="s">
         <v>40</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H25" s="4" t="s">
         <v>40</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
         <v>120</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
         <v>120</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="s">
         <v>120</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
         <v>120</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H30" s="4" t="s">
         <v>54</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H31" s="4" t="s">
         <v>54</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" s="4" t="s">
         <v>54</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H33" s="4" t="s">
         <v>54</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H34" s="4" t="s">
         <v>54</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
         <v>117</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
         <v>117</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
         <v>117</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
         <v>117</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
         <v>117</v>
       </c>

--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC7B9CE-765E-44D5-941D-167A6D0F4416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2B7DA4-3DC8-46D5-A164-A8E736DD2FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="169">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Set ANTICIPATED of "CEAO's Designation Review | CEAO's Designation Application Received" to thisEventACTUAL +1</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>AddEvent</t>
   </si>
   <si>
@@ -704,6 +701,24 @@
   </si>
   <si>
     <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 3, "ea_act_id": 3, "event_name": "Draft CEAO's Designation Application Initial Review", "start_at": 35 }</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>MANDATORY</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>{"work_type":6}</t>
+  </si>
+  <si>
+    <t>{"all_future_phases":false}</t>
   </si>
 </sst>
 </file>
@@ -1315,13 +1330,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789B1A8-4095-496B-ABDA-23EBF7B52DFC}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,12 +1345,12 @@
     <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1358,10 +1373,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1383,11 +1401,14 @@
       <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1409,11 +1430,14 @@
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1435,41 +1459,44 @@
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1575,7 +1602,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,8 +1614,7 @@
     <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
     <col min="7" max="9" width="14.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -1619,7 +1645,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -1628,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1666,8 +1692,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="b">
-        <v>1</v>
+      <c r="L2" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -1705,8 +1731,8 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="b">
-        <v>1</v>
+      <c r="L3" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -1744,8 +1770,8 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="8" t="b">
-        <v>1</v>
+      <c r="L4" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -1783,8 +1809,8 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
+      <c r="L5" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -1822,8 +1848,8 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
+      <c r="L6" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -1861,8 +1887,8 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="8" t="b">
-        <v>0</v>
+      <c r="L7" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -1900,8 +1926,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="8" t="b">
-        <v>1</v>
+      <c r="L8" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -1939,8 +1965,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="8" t="b">
-        <v>1</v>
+      <c r="L9" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -1978,8 +2004,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="8" t="b">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2017,8 +2043,8 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="8" t="b">
-        <v>0</v>
+      <c r="L11" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -2056,8 +2082,8 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="8" t="b">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -2098,8 +2124,8 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="8" t="b">
-        <v>0</v>
+      <c r="L13" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -2137,8 +2163,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="8" t="b">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -2179,8 +2205,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="8" t="b">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -2218,8 +2244,8 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="8" t="b">
-        <v>0</v>
+      <c r="L16" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -2257,8 +2283,8 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="8" t="b">
-        <v>1</v>
+      <c r="L17" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -2296,8 +2322,8 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="8" t="b">
-        <v>1</v>
+      <c r="L18" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -2335,8 +2361,8 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="8" t="b">
-        <v>1</v>
+      <c r="L19" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -2377,8 +2403,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="8" t="b">
-        <v>1</v>
+      <c r="L20" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -2416,8 +2442,8 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="8" t="b">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -2455,8 +2481,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="8" t="b">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -2497,8 +2523,8 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
+      <c r="L23" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -2536,8 +2562,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="8" t="b">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -2578,8 +2604,8 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="8" t="b">
-        <v>0</v>
+      <c r="L25" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -2617,8 +2643,8 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="8" t="b">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -2656,8 +2682,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="8" t="b">
-        <v>1</v>
+      <c r="L27" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -2698,8 +2724,8 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="8" t="b">
-        <v>1</v>
+      <c r="L28" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -2740,8 +2766,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="8" t="b">
-        <v>1</v>
+      <c r="L29" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -2759,13 +2785,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94FEBB1-315A-4609-9BCC-2B9E16A284E8}">
-          <x14:formula1>
-            <xm:f>Lookups!$M$3:$M$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L29</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52DB5617-9AC6-42B3-A0A1-82418CF13405}">
           <x14:formula1>
             <xm:f>Lookups!$K$3:$K$9</xm:f>
@@ -3041,10 +3061,10 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,7 +3120,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3118,13 +3138,13 @@
         <v>Initial Review of "Draft" CEAO's Designation is NEGATIVE</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -3142,13 +3162,13 @@
         <v>Initial Review of "Draft" CEAO's Designation is NEGATIVE</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -3166,13 +3186,13 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -3190,13 +3210,13 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -3214,13 +3234,13 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -3238,13 +3258,13 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -3262,13 +3282,13 @@
         <v>Starts the "clock" for CEAO's Designation</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -3286,13 +3306,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -3310,13 +3330,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -3334,13 +3354,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -3358,13 +3378,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -3382,13 +3402,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -3406,13 +3426,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -3430,13 +3450,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -3454,13 +3474,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -3478,13 +3498,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
@@ -3502,13 +3522,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
@@ -3526,13 +3546,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
@@ -3550,13 +3570,13 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
@@ -3574,13 +3594,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
@@ -3598,13 +3618,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
@@ -3622,13 +3642,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="G24" s="3">
         <v>23</v>
@@ -3646,13 +3666,13 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
@@ -3670,13 +3690,13 @@
         <v>Designate Project as Reviewable</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
@@ -3694,13 +3714,13 @@
         <v>Designate Project as Reviewable</v>
       </c>
       <c r="D27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>99</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
@@ -3718,13 +3738,13 @@
         <v>Decline to Designate Project as Reviewable</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
@@ -3742,4369 +3762,1649 @@
         <v>Decline to Designate Project as Reviewable</v>
       </c>
       <c r="D29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="6" t="str">
-        <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="3">
-        <v>29</v>
-      </c>
+      <c r="C30" s="6"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="6" t="str">
-        <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="3">
-        <v>30</v>
-      </c>
+      <c r="C31" s="6"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="6" t="str">
-        <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="3">
-        <v>31</v>
-      </c>
+      <c r="C32" s="6"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="6" t="str">
-        <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="3">
-        <v>32</v>
-      </c>
+      <c r="C33" s="6"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
+      <c r="A34" s="3"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="6" t="str">
-        <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="3">
-        <v>33</v>
-      </c>
+      <c r="C34" s="6"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="6" t="str">
-        <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="3">
-        <v>34</v>
-      </c>
+      <c r="C35" s="6"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="6" t="str">
-        <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="3">
-        <v>35</v>
-      </c>
+      <c r="C36" s="6"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="6" t="str">
-        <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="3">
-        <v>36</v>
-      </c>
+      <c r="C37" s="6"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
+      <c r="A38" s="3"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="6" t="str">
-        <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="3">
-        <v>37</v>
-      </c>
+      <c r="C38" s="6"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="6" t="str">
-        <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="3">
-        <v>38</v>
-      </c>
+      <c r="C39" s="6"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="6" t="str">
-        <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="3">
-        <v>39</v>
-      </c>
+      <c r="C40" s="6"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="6" t="str">
-        <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="3">
-        <v>40</v>
-      </c>
+      <c r="C41" s="6"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="6" t="str">
-        <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="3">
-        <v>41</v>
-      </c>
+      <c r="C42" s="6"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="6" t="str">
-        <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="3">
-        <v>42</v>
-      </c>
+      <c r="C43" s="6"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="6" t="str">
-        <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="3">
-        <v>43</v>
-      </c>
+      <c r="C44" s="6"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="6" t="str">
-        <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="3">
-        <v>44</v>
-      </c>
+      <c r="C45" s="6"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
+      <c r="A46" s="3"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="6" t="str">
-        <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="3">
-        <v>45</v>
-      </c>
+      <c r="C46" s="6"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="6" t="str">
-        <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="3">
-        <v>46</v>
-      </c>
+      <c r="C47" s="6"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
+      <c r="A48" s="3"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="6" t="str">
-        <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="3">
-        <v>47</v>
-      </c>
+      <c r="C48" s="6"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="6" t="str">
-        <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="3">
-        <v>48</v>
-      </c>
+      <c r="C49" s="6"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
+      <c r="A50" s="3"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="6" t="str">
-        <f>IF((B50=""),"",VLOOKUP(B50,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="3">
-        <v>49</v>
-      </c>
+      <c r="C50" s="6"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="6" t="str">
-        <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="3">
-        <v>50</v>
-      </c>
+      <c r="C51" s="6"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
+      <c r="A52" s="3"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="6" t="str">
-        <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="3">
-        <v>51</v>
-      </c>
+      <c r="C52" s="6"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="6" t="str">
-        <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" s="3">
-        <v>52</v>
-      </c>
+      <c r="C53" s="6"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
+      <c r="A54" s="3"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="6" t="str">
-        <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="3">
-        <v>53</v>
-      </c>
+      <c r="C54" s="6"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="6" t="str">
-        <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" s="3">
-        <v>54</v>
-      </c>
+      <c r="C55" s="6"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
+      <c r="A56" s="3"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="6" t="str">
-        <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="3">
-        <v>55</v>
-      </c>
+      <c r="C56" s="6"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
+      <c r="A57" s="3"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="6" t="str">
-        <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="3">
-        <v>56</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
+      <c r="A58" s="3"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="6" t="str">
-        <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="3">
-        <v>57</v>
-      </c>
+      <c r="C58" s="6"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
+      <c r="A59" s="3"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="6" t="str">
-        <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="3">
-        <v>58</v>
-      </c>
+      <c r="C59" s="6"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
+      <c r="A60" s="3"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="6" t="str">
-        <f>IF((B60=""),"",VLOOKUP(B60,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="3">
-        <v>59</v>
-      </c>
+      <c r="C60" s="6"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="6" t="str">
-        <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="3">
-        <v>60</v>
-      </c>
+      <c r="C61" s="6"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
+      <c r="A62" s="3"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="6" t="str">
-        <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" s="3">
-        <v>61</v>
-      </c>
+      <c r="C62" s="6"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
+      <c r="A63" s="3"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="6" t="str">
-        <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="3">
-        <v>62</v>
-      </c>
+      <c r="C63" s="6"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
+      <c r="A64" s="3"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="6" t="str">
-        <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="3">
-        <v>63</v>
-      </c>
+      <c r="C64" s="6"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
+      <c r="A65" s="3"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="6" t="str">
-        <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" s="3">
-        <v>64</v>
-      </c>
+      <c r="C65" s="6"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
+      <c r="A66" s="3"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="6" t="str">
-        <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="3">
-        <v>65</v>
-      </c>
+      <c r="C66" s="6"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
+      <c r="A67" s="3"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="6" t="str">
-        <f>IF((B67=""),"",VLOOKUP(B67,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="3">
-        <v>66</v>
-      </c>
+      <c r="C67" s="6"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="6" t="str">
-        <f>IF((B68=""),"",VLOOKUP(B68,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" s="3">
-        <v>67</v>
-      </c>
+      <c r="C68" s="6"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="6" t="str">
-        <f>IF((B69=""),"",VLOOKUP(B69,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" s="3">
-        <v>68</v>
-      </c>
+      <c r="C69" s="6"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
+      <c r="A70" s="3"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="6" t="str">
-        <f>IF((B70=""),"",VLOOKUP(B70,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="3">
-        <v>69</v>
-      </c>
+      <c r="C70" s="6"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>70</v>
-      </c>
+      <c r="A71" s="3"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="6" t="str">
-        <f>IF((B71=""),"",VLOOKUP(B71,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="3">
-        <v>70</v>
-      </c>
+      <c r="C71" s="6"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>71</v>
-      </c>
+      <c r="A72" s="3"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="6" t="str">
-        <f>IF((B72=""),"",VLOOKUP(B72,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" s="3">
-        <v>71</v>
-      </c>
+      <c r="C72" s="6"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
+      <c r="A73" s="3"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="6" t="str">
-        <f>IF((B73=""),"",VLOOKUP(B73,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" s="3">
-        <v>72</v>
-      </c>
+      <c r="C73" s="6"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
+      <c r="A74" s="3"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="6" t="str">
-        <f>IF((B74=""),"",VLOOKUP(B74,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" s="3">
-        <v>73</v>
-      </c>
+      <c r="C74" s="6"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
+      <c r="A75" s="3"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="6" t="str">
-        <f>IF((B75=""),"",VLOOKUP(B75,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" s="3">
-        <v>74</v>
-      </c>
+      <c r="C75" s="6"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
+      <c r="A76" s="3"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="6" t="str">
-        <f>IF((B76=""),"",VLOOKUP(B76,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" s="3">
-        <v>75</v>
-      </c>
+      <c r="C76" s="6"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
+      <c r="A77" s="3"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="6" t="str">
-        <f>IF((B77=""),"",VLOOKUP(B77,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" s="3">
-        <v>76</v>
-      </c>
+      <c r="C77" s="6"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
+      <c r="A78" s="3"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="6" t="str">
-        <f>IF((B78=""),"",VLOOKUP(B78,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="3">
-        <v>77</v>
-      </c>
+      <c r="C78" s="6"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>78</v>
-      </c>
+      <c r="A79" s="3"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="6" t="str">
-        <f>IF((B79=""),"",VLOOKUP(B79,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="3">
-        <v>78</v>
-      </c>
+      <c r="C79" s="6"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
+      <c r="A80" s="3"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="6" t="str">
-        <f>IF((B80=""),"",VLOOKUP(B80,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" s="3">
-        <v>79</v>
-      </c>
+      <c r="C80" s="6"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
+      <c r="A81" s="3"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="6" t="str">
-        <f>IF((B81=""),"",VLOOKUP(B81,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" s="3">
-        <v>80</v>
-      </c>
+      <c r="C81" s="6"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>81</v>
-      </c>
+      <c r="A82" s="3"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="6" t="str">
-        <f>IF((B82=""),"",VLOOKUP(B82,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" s="3">
-        <v>81</v>
-      </c>
+      <c r="C82" s="6"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>82</v>
-      </c>
+      <c r="A83" s="3"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="6" t="str">
-        <f>IF((B83=""),"",VLOOKUP(B83,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" s="3">
-        <v>82</v>
-      </c>
+      <c r="C83" s="6"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>83</v>
-      </c>
+      <c r="A84" s="3"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="6" t="str">
-        <f>IF((B84=""),"",VLOOKUP(B84,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" s="3">
-        <v>83</v>
-      </c>
+      <c r="C84" s="6"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>84</v>
-      </c>
+      <c r="A85" s="3"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="6" t="str">
-        <f>IF((B85=""),"",VLOOKUP(B85,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" s="3">
-        <v>84</v>
-      </c>
+      <c r="C85" s="6"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>85</v>
-      </c>
+      <c r="A86" s="3"/>
       <c r="B86" s="8"/>
-      <c r="C86" s="6" t="str">
-        <f>IF((B86=""),"",VLOOKUP(B86,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G86" s="3">
-        <v>85</v>
-      </c>
+      <c r="C86" s="6"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>86</v>
-      </c>
+      <c r="A87" s="3"/>
       <c r="B87" s="8"/>
-      <c r="C87" s="6" t="str">
-        <f>IF((B87=""),"",VLOOKUP(B87,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" s="3">
-        <v>86</v>
-      </c>
+      <c r="C87" s="6"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>87</v>
-      </c>
+      <c r="A88" s="3"/>
       <c r="B88" s="8"/>
-      <c r="C88" s="6" t="str">
-        <f>IF((B88=""),"",VLOOKUP(B88,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G88" s="3">
-        <v>87</v>
-      </c>
+      <c r="C88" s="6"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>88</v>
-      </c>
+      <c r="A89" s="3"/>
       <c r="B89" s="8"/>
-      <c r="C89" s="6" t="str">
-        <f>IF((B89=""),"",VLOOKUP(B89,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G89" s="3">
-        <v>88</v>
-      </c>
+      <c r="C89" s="6"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>89</v>
-      </c>
+      <c r="A90" s="3"/>
       <c r="B90" s="8"/>
-      <c r="C90" s="6" t="str">
-        <f>IF((B90=""),"",VLOOKUP(B90,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" s="3">
-        <v>89</v>
-      </c>
+      <c r="C90" s="6"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>90</v>
-      </c>
+      <c r="A91" s="3"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="6" t="str">
-        <f>IF((B91=""),"",VLOOKUP(B91,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="3">
-        <v>90</v>
-      </c>
+      <c r="C91" s="6"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>91</v>
-      </c>
+      <c r="A92" s="3"/>
       <c r="B92" s="8"/>
-      <c r="C92" s="6" t="str">
-        <f>IF((B92=""),"",VLOOKUP(B92,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="3">
-        <v>91</v>
-      </c>
+      <c r="C92" s="6"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>92</v>
-      </c>
+      <c r="A93" s="3"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="6" t="str">
-        <f>IF((B93=""),"",VLOOKUP(B93,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G93" s="3">
-        <v>92</v>
-      </c>
+      <c r="C93" s="6"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>93</v>
-      </c>
+      <c r="A94" s="3"/>
       <c r="B94" s="8"/>
-      <c r="C94" s="6" t="str">
-        <f>IF((B94=""),"",VLOOKUP(B94,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" s="3">
-        <v>93</v>
-      </c>
+      <c r="C94" s="6"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>94</v>
-      </c>
+      <c r="A95" s="3"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="6" t="str">
-        <f>IF((B95=""),"",VLOOKUP(B95,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G95" s="3">
-        <v>94</v>
-      </c>
+      <c r="C95" s="6"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>95</v>
-      </c>
+      <c r="A96" s="3"/>
       <c r="B96" s="8"/>
-      <c r="C96" s="6" t="str">
-        <f>IF((B96=""),"",VLOOKUP(B96,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G96" s="3">
-        <v>95</v>
-      </c>
+      <c r="C96" s="6"/>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>96</v>
-      </c>
+      <c r="A97" s="3"/>
       <c r="B97" s="8"/>
-      <c r="C97" s="6" t="str">
-        <f>IF((B97=""),"",VLOOKUP(B97,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" s="3">
-        <v>96</v>
-      </c>
+      <c r="C97" s="6"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>97</v>
-      </c>
+      <c r="A98" s="3"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="6" t="str">
-        <f>IF((B98=""),"",VLOOKUP(B98,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" s="3">
-        <v>97</v>
-      </c>
+      <c r="C98" s="6"/>
+      <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>98</v>
-      </c>
+      <c r="A99" s="3"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="6" t="str">
-        <f>IF((B99=""),"",VLOOKUP(B99,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G99" s="3">
-        <v>98</v>
-      </c>
+      <c r="C99" s="6"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>99</v>
-      </c>
+      <c r="A100" s="3"/>
       <c r="B100" s="8"/>
-      <c r="C100" s="6" t="str">
-        <f>IF((B100=""),"",VLOOKUP(B100,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="3">
-        <v>99</v>
-      </c>
+      <c r="C100" s="6"/>
+      <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>100</v>
-      </c>
+      <c r="A101" s="3"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="6" t="str">
-        <f>IF((B101=""),"",VLOOKUP(B101,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
+      <c r="C101" s="6"/>
+      <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>101</v>
-      </c>
+      <c r="A102" s="3"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="6" t="str">
-        <f>IF((B102=""),"",VLOOKUP(B102,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G102" s="3">
-        <v>101</v>
-      </c>
+      <c r="C102" s="6"/>
+      <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>102</v>
-      </c>
+      <c r="A103" s="3"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="6" t="str">
-        <f>IF((B103=""),"",VLOOKUP(B103,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G103" s="3">
-        <v>102</v>
-      </c>
+      <c r="C103" s="6"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>103</v>
-      </c>
+      <c r="A104" s="3"/>
       <c r="B104" s="8"/>
-      <c r="C104" s="6" t="str">
-        <f>IF((B104=""),"",VLOOKUP(B104,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G104" s="3">
-        <v>103</v>
-      </c>
+      <c r="C104" s="6"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>104</v>
-      </c>
+      <c r="A105" s="3"/>
       <c r="B105" s="8"/>
-      <c r="C105" s="6" t="str">
-        <f>IF((B105=""),"",VLOOKUP(B105,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G105" s="3">
-        <v>104</v>
-      </c>
+      <c r="C105" s="6"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>105</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="8"/>
-      <c r="C106" s="6" t="str">
-        <f>IF((B106=""),"",VLOOKUP(B106,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G106" s="3">
-        <v>105</v>
-      </c>
+      <c r="C106" s="6"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>106</v>
-      </c>
+      <c r="A107" s="3"/>
       <c r="B107" s="8"/>
-      <c r="C107" s="6" t="str">
-        <f>IF((B107=""),"",VLOOKUP(B107,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G107" s="3">
-        <v>106</v>
-      </c>
+      <c r="C107" s="6"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>107</v>
-      </c>
+      <c r="A108" s="3"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="6" t="str">
-        <f>IF((B108=""),"",VLOOKUP(B108,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G108" s="3">
-        <v>107</v>
-      </c>
+      <c r="C108" s="6"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
-        <v>108</v>
-      </c>
+      <c r="A109" s="3"/>
       <c r="B109" s="8"/>
-      <c r="C109" s="6" t="str">
-        <f>IF((B109=""),"",VLOOKUP(B109,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G109" s="3">
-        <v>108</v>
-      </c>
+      <c r="C109" s="6"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>109</v>
-      </c>
+      <c r="A110" s="3"/>
       <c r="B110" s="8"/>
-      <c r="C110" s="6" t="str">
-        <f>IF((B110=""),"",VLOOKUP(B110,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G110" s="3">
-        <v>109</v>
-      </c>
+      <c r="C110" s="6"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <v>110</v>
-      </c>
+      <c r="A111" s="3"/>
       <c r="B111" s="8"/>
-      <c r="C111" s="6" t="str">
-        <f>IF((B111=""),"",VLOOKUP(B111,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G111" s="3">
-        <v>110</v>
-      </c>
+      <c r="C111" s="6"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>111</v>
-      </c>
+      <c r="A112" s="3"/>
       <c r="B112" s="8"/>
-      <c r="C112" s="6" t="str">
-        <f>IF((B112=""),"",VLOOKUP(B112,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G112" s="3">
-        <v>111</v>
-      </c>
+      <c r="C112" s="6"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
-        <v>112</v>
-      </c>
+      <c r="A113" s="3"/>
       <c r="B113" s="8"/>
-      <c r="C113" s="6" t="str">
-        <f>IF((B113=""),"",VLOOKUP(B113,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" s="3">
-        <v>112</v>
-      </c>
+      <c r="C113" s="6"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>113</v>
-      </c>
+      <c r="A114" s="3"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="6" t="str">
-        <f>IF((B114=""),"",VLOOKUP(B114,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G114" s="3">
-        <v>113</v>
-      </c>
+      <c r="C114" s="6"/>
+      <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
-        <v>114</v>
-      </c>
+      <c r="A115" s="3"/>
       <c r="B115" s="8"/>
-      <c r="C115" s="6" t="str">
-        <f>IF((B115=""),"",VLOOKUP(B115,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115" s="3">
-        <v>114</v>
-      </c>
+      <c r="C115" s="6"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
-        <v>115</v>
-      </c>
+      <c r="A116" s="3"/>
       <c r="B116" s="8"/>
-      <c r="C116" s="6" t="str">
-        <f>IF((B116=""),"",VLOOKUP(B116,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G116" s="3">
-        <v>115</v>
-      </c>
+      <c r="C116" s="6"/>
+      <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
-        <v>116</v>
-      </c>
+      <c r="A117" s="3"/>
       <c r="B117" s="8"/>
-      <c r="C117" s="6" t="str">
-        <f>IF((B117=""),"",VLOOKUP(B117,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G117" s="3">
-        <v>116</v>
-      </c>
+      <c r="C117" s="6"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
-        <v>117</v>
-      </c>
+      <c r="A118" s="3"/>
       <c r="B118" s="8"/>
-      <c r="C118" s="6" t="str">
-        <f>IF((B118=""),"",VLOOKUP(B118,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G118" s="3">
-        <v>117</v>
-      </c>
+      <c r="C118" s="6"/>
+      <c r="G118" s="3"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <v>118</v>
-      </c>
+      <c r="A119" s="3"/>
       <c r="B119" s="8"/>
-      <c r="C119" s="6" t="str">
-        <f>IF((B119=""),"",VLOOKUP(B119,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G119" s="3">
-        <v>118</v>
-      </c>
+      <c r="C119" s="6"/>
+      <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <v>119</v>
-      </c>
+      <c r="A120" s="3"/>
       <c r="B120" s="8"/>
-      <c r="C120" s="6" t="str">
-        <f>IF((B120=""),"",VLOOKUP(B120,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G120" s="3">
-        <v>119</v>
-      </c>
+      <c r="C120" s="6"/>
+      <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
-        <v>120</v>
-      </c>
+      <c r="A121" s="3"/>
       <c r="B121" s="8"/>
-      <c r="C121" s="6" t="str">
-        <f>IF((B121=""),"",VLOOKUP(B121,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G121" s="3">
-        <v>120</v>
-      </c>
+      <c r="C121" s="6"/>
+      <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>121</v>
-      </c>
+      <c r="A122" s="3"/>
       <c r="B122" s="8"/>
-      <c r="C122" s="6" t="str">
-        <f>IF((B122=""),"",VLOOKUP(B122,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G122" s="3">
-        <v>121</v>
-      </c>
+      <c r="C122" s="6"/>
+      <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>122</v>
-      </c>
+      <c r="A123" s="3"/>
       <c r="B123" s="8"/>
-      <c r="C123" s="6" t="str">
-        <f>IF((B123=""),"",VLOOKUP(B123,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G123" s="3">
-        <v>122</v>
-      </c>
+      <c r="C123" s="6"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
-        <v>123</v>
-      </c>
+      <c r="A124" s="3"/>
       <c r="B124" s="8"/>
-      <c r="C124" s="6" t="str">
-        <f>IF((B124=""),"",VLOOKUP(B124,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G124" s="3">
-        <v>123</v>
-      </c>
+      <c r="C124" s="6"/>
+      <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
-        <v>124</v>
-      </c>
+      <c r="A125" s="3"/>
       <c r="B125" s="8"/>
-      <c r="C125" s="6" t="str">
-        <f>IF((B125=""),"",VLOOKUP(B125,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G125" s="3">
-        <v>124</v>
-      </c>
+      <c r="C125" s="6"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
-        <v>125</v>
-      </c>
+      <c r="A126" s="3"/>
       <c r="B126" s="8"/>
-      <c r="C126" s="6" t="str">
-        <f>IF((B126=""),"",VLOOKUP(B126,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G126" s="3">
-        <v>125</v>
-      </c>
+      <c r="C126" s="6"/>
+      <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
-        <v>126</v>
-      </c>
+      <c r="A127" s="3"/>
       <c r="B127" s="8"/>
-      <c r="C127" s="6" t="str">
-        <f>IF((B127=""),"",VLOOKUP(B127,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G127" s="3">
-        <v>126</v>
-      </c>
+      <c r="C127" s="6"/>
+      <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
-        <v>127</v>
-      </c>
+      <c r="A128" s="3"/>
       <c r="B128" s="8"/>
-      <c r="C128" s="6" t="str">
-        <f>IF((B128=""),"",VLOOKUP(B128,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G128" s="3">
-        <v>127</v>
-      </c>
+      <c r="C128" s="6"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
-        <v>128</v>
-      </c>
+      <c r="A129" s="3"/>
       <c r="B129" s="8"/>
-      <c r="C129" s="6" t="str">
-        <f>IF((B129=""),"",VLOOKUP(B129,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G129" s="3">
-        <v>128</v>
-      </c>
+      <c r="C129" s="6"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>129</v>
-      </c>
+      <c r="A130" s="3"/>
       <c r="B130" s="8"/>
-      <c r="C130" s="6" t="str">
-        <f>IF((B130=""),"",VLOOKUP(B130,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G130" s="3">
-        <v>129</v>
-      </c>
+      <c r="C130" s="6"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
-        <v>130</v>
-      </c>
+      <c r="A131" s="3"/>
       <c r="B131" s="8"/>
-      <c r="C131" s="6" t="str">
-        <f>IF((B131=""),"",VLOOKUP(B131,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G131" s="3">
-        <v>130</v>
-      </c>
+      <c r="C131" s="6"/>
+      <c r="G131" s="3"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
-        <v>131</v>
-      </c>
+      <c r="A132" s="3"/>
       <c r="B132" s="8"/>
-      <c r="C132" s="6" t="str">
-        <f>IF((B132=""),"",VLOOKUP(B132,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G132" s="3">
-        <v>131</v>
-      </c>
+      <c r="C132" s="6"/>
+      <c r="G132" s="3"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
-        <v>132</v>
-      </c>
+      <c r="A133" s="3"/>
       <c r="B133" s="8"/>
-      <c r="C133" s="6" t="str">
-        <f>IF((B133=""),"",VLOOKUP(B133,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G133" s="3">
-        <v>132</v>
-      </c>
+      <c r="C133" s="6"/>
+      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
-        <v>133</v>
-      </c>
+      <c r="A134" s="3"/>
       <c r="B134" s="8"/>
-      <c r="C134" s="6" t="str">
-        <f>IF((B134=""),"",VLOOKUP(B134,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G134" s="3">
-        <v>133</v>
-      </c>
+      <c r="C134" s="6"/>
+      <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
-        <v>134</v>
-      </c>
+      <c r="A135" s="3"/>
       <c r="B135" s="8"/>
-      <c r="C135" s="6" t="str">
-        <f>IF((B135=""),"",VLOOKUP(B135,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G135" s="3">
-        <v>134</v>
-      </c>
+      <c r="C135" s="6"/>
+      <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
-        <v>135</v>
-      </c>
+      <c r="A136" s="3"/>
       <c r="B136" s="8"/>
-      <c r="C136" s="6" t="str">
-        <f>IF((B136=""),"",VLOOKUP(B136,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G136" s="3">
-        <v>135</v>
-      </c>
+      <c r="C136" s="6"/>
+      <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
-        <v>136</v>
-      </c>
+      <c r="A137" s="3"/>
       <c r="B137" s="8"/>
-      <c r="C137" s="6" t="str">
-        <f>IF((B137=""),"",VLOOKUP(B137,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G137" s="3">
-        <v>136</v>
-      </c>
+      <c r="C137" s="6"/>
+      <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
-        <v>137</v>
-      </c>
+      <c r="A138" s="3"/>
       <c r="B138" s="8"/>
-      <c r="C138" s="6" t="str">
-        <f>IF((B138=""),"",VLOOKUP(B138,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G138" s="3">
-        <v>137</v>
-      </c>
+      <c r="C138" s="6"/>
+      <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>138</v>
-      </c>
+      <c r="A139" s="3"/>
       <c r="B139" s="8"/>
-      <c r="C139" s="6" t="str">
-        <f>IF((B139=""),"",VLOOKUP(B139,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G139" s="3">
-        <v>138</v>
-      </c>
+      <c r="C139" s="6"/>
+      <c r="G139" s="3"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
-        <v>139</v>
-      </c>
+      <c r="A140" s="3"/>
       <c r="B140" s="8"/>
-      <c r="C140" s="6" t="str">
-        <f>IF((B140=""),"",VLOOKUP(B140,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G140" s="3">
-        <v>139</v>
-      </c>
+      <c r="C140" s="6"/>
+      <c r="G140" s="3"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
-        <v>140</v>
-      </c>
+      <c r="A141" s="3"/>
       <c r="B141" s="8"/>
-      <c r="C141" s="6" t="str">
-        <f>IF((B141=""),"",VLOOKUP(B141,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G141" s="3">
-        <v>140</v>
-      </c>
+      <c r="C141" s="6"/>
+      <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
-        <v>141</v>
-      </c>
+      <c r="A142" s="3"/>
       <c r="B142" s="8"/>
-      <c r="C142" s="6" t="str">
-        <f>IF((B142=""),"",VLOOKUP(B142,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G142" s="3">
-        <v>141</v>
-      </c>
+      <c r="C142" s="6"/>
+      <c r="G142" s="3"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>142</v>
-      </c>
+      <c r="A143" s="3"/>
       <c r="B143" s="8"/>
-      <c r="C143" s="6" t="str">
-        <f>IF((B143=""),"",VLOOKUP(B143,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G143" s="3">
-        <v>142</v>
-      </c>
+      <c r="C143" s="6"/>
+      <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>143</v>
-      </c>
+      <c r="A144" s="3"/>
       <c r="B144" s="8"/>
-      <c r="C144" s="6" t="str">
-        <f>IF((B144=""),"",VLOOKUP(B144,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G144" s="3">
-        <v>143</v>
-      </c>
+      <c r="C144" s="6"/>
+      <c r="G144" s="3"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
-        <v>144</v>
-      </c>
+      <c r="A145" s="3"/>
       <c r="B145" s="8"/>
-      <c r="C145" s="6" t="str">
-        <f>IF((B145=""),"",VLOOKUP(B145,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G145" s="3">
-        <v>144</v>
-      </c>
+      <c r="C145" s="6"/>
+      <c r="G145" s="3"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
-        <v>145</v>
-      </c>
+      <c r="A146" s="3"/>
       <c r="B146" s="8"/>
-      <c r="C146" s="6" t="str">
-        <f>IF((B146=""),"",VLOOKUP(B146,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G146" s="3">
-        <v>145</v>
-      </c>
+      <c r="C146" s="6"/>
+      <c r="G146" s="3"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
-        <v>146</v>
-      </c>
+      <c r="A147" s="3"/>
       <c r="B147" s="8"/>
-      <c r="C147" s="6" t="str">
-        <f>IF((B147=""),"",VLOOKUP(B147,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G147" s="3">
-        <v>146</v>
-      </c>
+      <c r="C147" s="6"/>
+      <c r="G147" s="3"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
-        <v>147</v>
-      </c>
+      <c r="A148" s="3"/>
       <c r="B148" s="8"/>
-      <c r="C148" s="6" t="str">
-        <f>IF((B148=""),"",VLOOKUP(B148,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G148" s="3">
-        <v>147</v>
-      </c>
+      <c r="C148" s="6"/>
+      <c r="G148" s="3"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>148</v>
-      </c>
+      <c r="A149" s="3"/>
       <c r="B149" s="8"/>
-      <c r="C149" s="6" t="str">
-        <f>IF((B149=""),"",VLOOKUP(B149,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G149" s="3">
-        <v>148</v>
-      </c>
+      <c r="C149" s="6"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>149</v>
-      </c>
+      <c r="A150" s="3"/>
       <c r="B150" s="8"/>
-      <c r="C150" s="6" t="str">
-        <f>IF((B150=""),"",VLOOKUP(B150,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G150" s="3">
-        <v>149</v>
-      </c>
+      <c r="C150" s="6"/>
+      <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
-        <v>150</v>
-      </c>
+      <c r="A151" s="3"/>
       <c r="B151" s="8"/>
-      <c r="C151" s="6" t="str">
-        <f>IF((B151=""),"",VLOOKUP(B151,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G151" s="3">
-        <v>150</v>
-      </c>
+      <c r="C151" s="6"/>
+      <c r="G151" s="3"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
-        <v>151</v>
-      </c>
+      <c r="A152" s="3"/>
       <c r="B152" s="8"/>
-      <c r="C152" s="6" t="str">
-        <f>IF((B152=""),"",VLOOKUP(B152,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G152" s="3">
-        <v>151</v>
-      </c>
+      <c r="C152" s="6"/>
+      <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
-        <v>152</v>
-      </c>
+      <c r="A153" s="3"/>
       <c r="B153" s="8"/>
-      <c r="C153" s="6" t="str">
-        <f>IF((B153=""),"",VLOOKUP(B153,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G153" s="3">
-        <v>152</v>
-      </c>
+      <c r="C153" s="6"/>
+      <c r="G153" s="3"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>153</v>
-      </c>
+      <c r="A154" s="3"/>
       <c r="B154" s="8"/>
-      <c r="C154" s="6" t="str">
-        <f>IF((B154=""),"",VLOOKUP(B154,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G154" s="3">
-        <v>153</v>
-      </c>
+      <c r="C154" s="6"/>
+      <c r="G154" s="3"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
-        <v>154</v>
-      </c>
+      <c r="A155" s="3"/>
       <c r="B155" s="8"/>
-      <c r="C155" s="6" t="str">
-        <f>IF((B155=""),"",VLOOKUP(B155,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G155" s="3">
-        <v>154</v>
-      </c>
+      <c r="C155" s="6"/>
+      <c r="G155" s="3"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
-        <v>155</v>
-      </c>
+      <c r="A156" s="3"/>
       <c r="B156" s="8"/>
-      <c r="C156" s="6" t="str">
-        <f>IF((B156=""),"",VLOOKUP(B156,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G156" s="3">
-        <v>155</v>
-      </c>
+      <c r="C156" s="6"/>
+      <c r="G156" s="3"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
-        <v>156</v>
-      </c>
+      <c r="A157" s="3"/>
       <c r="B157" s="8"/>
-      <c r="C157" s="6" t="str">
-        <f>IF((B157=""),"",VLOOKUP(B157,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G157" s="3">
-        <v>156</v>
-      </c>
+      <c r="C157" s="6"/>
+      <c r="G157" s="3"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
-        <v>157</v>
-      </c>
+      <c r="A158" s="3"/>
       <c r="B158" s="8"/>
-      <c r="C158" s="6" t="str">
-        <f>IF((B158=""),"",VLOOKUP(B158,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G158" s="3">
-        <v>157</v>
-      </c>
+      <c r="C158" s="6"/>
+      <c r="G158" s="3"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
-        <v>158</v>
-      </c>
+      <c r="A159" s="3"/>
       <c r="B159" s="8"/>
-      <c r="C159" s="6" t="str">
-        <f>IF((B159=""),"",VLOOKUP(B159,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G159" s="3">
-        <v>158</v>
-      </c>
+      <c r="C159" s="6"/>
+      <c r="G159" s="3"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
-        <v>159</v>
-      </c>
+      <c r="A160" s="3"/>
       <c r="B160" s="8"/>
-      <c r="C160" s="6" t="str">
-        <f>IF((B160=""),"",VLOOKUP(B160,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G160" s="3">
-        <v>159</v>
-      </c>
+      <c r="C160" s="6"/>
+      <c r="G160" s="3"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
-        <v>160</v>
-      </c>
+      <c r="A161" s="3"/>
       <c r="B161" s="8"/>
-      <c r="C161" s="6" t="str">
-        <f>IF((B161=""),"",VLOOKUP(B161,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G161" s="3">
-        <v>160</v>
-      </c>
+      <c r="C161" s="6"/>
+      <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
-        <v>161</v>
-      </c>
+      <c r="A162" s="3"/>
       <c r="B162" s="8"/>
-      <c r="C162" s="6" t="str">
-        <f>IF((B162=""),"",VLOOKUP(B162,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G162" s="3">
-        <v>161</v>
-      </c>
+      <c r="C162" s="6"/>
+      <c r="G162" s="3"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
-        <v>162</v>
-      </c>
+      <c r="A163" s="3"/>
       <c r="B163" s="8"/>
-      <c r="C163" s="6" t="str">
-        <f>IF((B163=""),"",VLOOKUP(B163,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G163" s="3">
-        <v>162</v>
-      </c>
+      <c r="C163" s="6"/>
+      <c r="G163" s="3"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
-        <v>163</v>
-      </c>
+      <c r="A164" s="3"/>
       <c r="B164" s="8"/>
-      <c r="C164" s="6" t="str">
-        <f>IF((B164=""),"",VLOOKUP(B164,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G164" s="3">
-        <v>163</v>
-      </c>
+      <c r="C164" s="6"/>
+      <c r="G164" s="3"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
-        <v>164</v>
-      </c>
+      <c r="A165" s="3"/>
       <c r="B165" s="8"/>
-      <c r="C165" s="6" t="str">
-        <f>IF((B165=""),"",VLOOKUP(B165,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G165" s="3">
-        <v>164</v>
-      </c>
+      <c r="C165" s="6"/>
+      <c r="G165" s="3"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
-        <v>165</v>
-      </c>
+      <c r="A166" s="3"/>
       <c r="B166" s="8"/>
-      <c r="C166" s="6" t="str">
-        <f>IF((B166=""),"",VLOOKUP(B166,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G166" s="3">
-        <v>165</v>
-      </c>
+      <c r="C166" s="6"/>
+      <c r="G166" s="3"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
-        <v>166</v>
-      </c>
+      <c r="A167" s="3"/>
       <c r="B167" s="8"/>
-      <c r="C167" s="6" t="str">
-        <f>IF((B167=""),"",VLOOKUP(B167,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G167" s="3">
-        <v>166</v>
-      </c>
+      <c r="C167" s="6"/>
+      <c r="G167" s="3"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
-        <v>167</v>
-      </c>
+      <c r="A168" s="3"/>
       <c r="B168" s="8"/>
-      <c r="C168" s="6" t="str">
-        <f>IF((B168=""),"",VLOOKUP(B168,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G168" s="3">
-        <v>167</v>
-      </c>
+      <c r="C168" s="6"/>
+      <c r="G168" s="3"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
-        <v>168</v>
-      </c>
+      <c r="A169" s="3"/>
       <c r="B169" s="8"/>
-      <c r="C169" s="6" t="str">
-        <f>IF((B169=""),"",VLOOKUP(B169,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G169" s="3">
-        <v>168</v>
-      </c>
+      <c r="C169" s="6"/>
+      <c r="G169" s="3"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>169</v>
-      </c>
+      <c r="A170" s="3"/>
       <c r="B170" s="8"/>
-      <c r="C170" s="6" t="str">
-        <f>IF((B170=""),"",VLOOKUP(B170,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G170" s="3">
-        <v>169</v>
-      </c>
+      <c r="C170" s="6"/>
+      <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
-        <v>170</v>
-      </c>
+      <c r="A171" s="3"/>
       <c r="B171" s="8"/>
-      <c r="C171" s="6" t="str">
-        <f>IF((B171=""),"",VLOOKUP(B171,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G171" s="3">
-        <v>170</v>
-      </c>
+      <c r="C171" s="6"/>
+      <c r="G171" s="3"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
-        <v>171</v>
-      </c>
+      <c r="A172" s="3"/>
       <c r="B172" s="8"/>
-      <c r="C172" s="6" t="str">
-        <f>IF((B172=""),"",VLOOKUP(B172,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G172" s="3">
-        <v>171</v>
-      </c>
+      <c r="C172" s="6"/>
+      <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
-        <v>172</v>
-      </c>
+      <c r="A173" s="3"/>
       <c r="B173" s="8"/>
-      <c r="C173" s="6" t="str">
-        <f>IF((B173=""),"",VLOOKUP(B173,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G173" s="3">
-        <v>172</v>
-      </c>
+      <c r="C173" s="6"/>
+      <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
-        <v>173</v>
-      </c>
+      <c r="A174" s="3"/>
       <c r="B174" s="8"/>
-      <c r="C174" s="6" t="str">
-        <f>IF((B174=""),"",VLOOKUP(B174,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G174" s="3">
-        <v>173</v>
-      </c>
+      <c r="C174" s="6"/>
+      <c r="G174" s="3"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
-        <v>174</v>
-      </c>
+      <c r="A175" s="3"/>
       <c r="B175" s="8"/>
-      <c r="C175" s="6" t="str">
-        <f>IF((B175=""),"",VLOOKUP(B175,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G175" s="3">
-        <v>174</v>
-      </c>
+      <c r="C175" s="6"/>
+      <c r="G175" s="3"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
-        <v>175</v>
-      </c>
+      <c r="A176" s="3"/>
       <c r="B176" s="8"/>
-      <c r="C176" s="6" t="str">
-        <f>IF((B176=""),"",VLOOKUP(B176,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G176" s="3">
-        <v>175</v>
-      </c>
+      <c r="C176" s="6"/>
+      <c r="G176" s="3"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
-        <v>176</v>
-      </c>
+      <c r="A177" s="3"/>
       <c r="B177" s="8"/>
-      <c r="C177" s="6" t="str">
-        <f>IF((B177=""),"",VLOOKUP(B177,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G177" s="3">
-        <v>176</v>
-      </c>
+      <c r="C177" s="6"/>
+      <c r="G177" s="3"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
-        <v>177</v>
-      </c>
+      <c r="A178" s="3"/>
       <c r="B178" s="8"/>
-      <c r="C178" s="6" t="str">
-        <f>IF((B178=""),"",VLOOKUP(B178,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G178" s="3">
-        <v>177</v>
-      </c>
+      <c r="C178" s="6"/>
+      <c r="G178" s="3"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
-        <v>178</v>
-      </c>
+      <c r="A179" s="3"/>
       <c r="B179" s="8"/>
-      <c r="C179" s="6" t="str">
-        <f>IF((B179=""),"",VLOOKUP(B179,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G179" s="3">
-        <v>178</v>
-      </c>
+      <c r="C179" s="6"/>
+      <c r="G179" s="3"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
-        <v>179</v>
-      </c>
+      <c r="A180" s="3"/>
       <c r="B180" s="8"/>
-      <c r="C180" s="6" t="str">
-        <f>IF((B180=""),"",VLOOKUP(B180,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G180" s="3">
-        <v>179</v>
-      </c>
+      <c r="C180" s="6"/>
+      <c r="G180" s="3"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
-        <v>180</v>
-      </c>
+      <c r="A181" s="3"/>
       <c r="B181" s="8"/>
-      <c r="C181" s="6" t="str">
-        <f>IF((B181=""),"",VLOOKUP(B181,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G181" s="3">
-        <v>180</v>
-      </c>
+      <c r="C181" s="6"/>
+      <c r="G181" s="3"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
-        <v>181</v>
-      </c>
+      <c r="A182" s="3"/>
       <c r="B182" s="8"/>
-      <c r="C182" s="6" t="str">
-        <f>IF((B182=""),"",VLOOKUP(B182,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G182" s="3">
-        <v>181</v>
-      </c>
+      <c r="C182" s="6"/>
+      <c r="G182" s="3"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
-        <v>182</v>
-      </c>
+      <c r="A183" s="3"/>
       <c r="B183" s="8"/>
-      <c r="C183" s="6" t="str">
-        <f>IF((B183=""),"",VLOOKUP(B183,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G183" s="3">
-        <v>182</v>
-      </c>
+      <c r="C183" s="6"/>
+      <c r="G183" s="3"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
-        <v>183</v>
-      </c>
+      <c r="A184" s="3"/>
       <c r="B184" s="8"/>
-      <c r="C184" s="6" t="str">
-        <f>IF((B184=""),"",VLOOKUP(B184,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G184" s="3">
-        <v>183</v>
-      </c>
+      <c r="C184" s="6"/>
+      <c r="G184" s="3"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
-        <v>184</v>
-      </c>
+      <c r="A185" s="3"/>
       <c r="B185" s="8"/>
-      <c r="C185" s="6" t="str">
-        <f>IF((B185=""),"",VLOOKUP(B185,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G185" s="3">
-        <v>184</v>
-      </c>
+      <c r="C185" s="6"/>
+      <c r="G185" s="3"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
-        <v>185</v>
-      </c>
+      <c r="A186" s="3"/>
       <c r="B186" s="8"/>
-      <c r="C186" s="6" t="str">
-        <f>IF((B186=""),"",VLOOKUP(B186,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G186" s="3">
-        <v>185</v>
-      </c>
+      <c r="C186" s="6"/>
+      <c r="G186" s="3"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
-        <v>186</v>
-      </c>
+      <c r="A187" s="3"/>
       <c r="B187" s="8"/>
-      <c r="C187" s="6" t="str">
-        <f>IF((B187=""),"",VLOOKUP(B187,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G187" s="3">
-        <v>186</v>
-      </c>
+      <c r="C187" s="6"/>
+      <c r="G187" s="3"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
-        <v>187</v>
-      </c>
+      <c r="A188" s="3"/>
       <c r="B188" s="8"/>
-      <c r="C188" s="6" t="str">
-        <f>IF((B188=""),"",VLOOKUP(B188,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G188" s="3">
-        <v>187</v>
-      </c>
+      <c r="C188" s="6"/>
+      <c r="G188" s="3"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
-        <v>188</v>
-      </c>
+      <c r="A189" s="3"/>
       <c r="B189" s="8"/>
-      <c r="C189" s="6" t="str">
-        <f>IF((B189=""),"",VLOOKUP(B189,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G189" s="3">
-        <v>188</v>
-      </c>
+      <c r="C189" s="6"/>
+      <c r="G189" s="3"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
-        <v>189</v>
-      </c>
+      <c r="A190" s="3"/>
       <c r="B190" s="8"/>
-      <c r="C190" s="6" t="str">
-        <f>IF((B190=""),"",VLOOKUP(B190,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G190" s="3">
-        <v>189</v>
-      </c>
+      <c r="C190" s="6"/>
+      <c r="G190" s="3"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
-        <v>190</v>
-      </c>
+      <c r="A191" s="3"/>
       <c r="B191" s="8"/>
-      <c r="C191" s="6" t="str">
-        <f>IF((B191=""),"",VLOOKUP(B191,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G191" s="3">
-        <v>190</v>
-      </c>
+      <c r="C191" s="6"/>
+      <c r="G191" s="3"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
-        <v>191</v>
-      </c>
+      <c r="A192" s="3"/>
       <c r="B192" s="8"/>
-      <c r="C192" s="6" t="str">
-        <f>IF((B192=""),"",VLOOKUP(B192,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G192" s="3">
-        <v>191</v>
-      </c>
+      <c r="C192" s="6"/>
+      <c r="G192" s="3"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
-        <v>192</v>
-      </c>
+      <c r="A193" s="3"/>
       <c r="B193" s="8"/>
-      <c r="C193" s="6" t="str">
-        <f>IF((B193=""),"",VLOOKUP(B193,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G193" s="3">
-        <v>192</v>
-      </c>
+      <c r="C193" s="6"/>
+      <c r="G193" s="3"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
-        <v>193</v>
-      </c>
+      <c r="A194" s="3"/>
       <c r="B194" s="8"/>
-      <c r="C194" s="6" t="str">
-        <f>IF((B194=""),"",VLOOKUP(B194,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G194" s="3">
-        <v>193</v>
-      </c>
+      <c r="C194" s="6"/>
+      <c r="G194" s="3"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
-        <v>194</v>
-      </c>
+      <c r="A195" s="3"/>
       <c r="B195" s="8"/>
-      <c r="C195" s="6" t="str">
-        <f>IF((B195=""),"",VLOOKUP(B195,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G195" s="3">
-        <v>194</v>
-      </c>
+      <c r="C195" s="6"/>
+      <c r="G195" s="3"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
-        <v>195</v>
-      </c>
+      <c r="A196" s="3"/>
       <c r="B196" s="8"/>
-      <c r="C196" s="6" t="str">
-        <f>IF((B196=""),"",VLOOKUP(B196,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G196" s="3">
-        <v>195</v>
-      </c>
+      <c r="C196" s="6"/>
+      <c r="G196" s="3"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
-        <v>196</v>
-      </c>
+      <c r="A197" s="3"/>
       <c r="B197" s="8"/>
-      <c r="C197" s="6" t="str">
-        <f>IF((B197=""),"",VLOOKUP(B197,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G197" s="3">
-        <v>196</v>
-      </c>
+      <c r="C197" s="6"/>
+      <c r="G197" s="3"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
-        <v>197</v>
-      </c>
+      <c r="A198" s="3"/>
       <c r="B198" s="8"/>
-      <c r="C198" s="6" t="str">
-        <f>IF((B198=""),"",VLOOKUP(B198,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G198" s="3">
-        <v>197</v>
-      </c>
+      <c r="C198" s="6"/>
+      <c r="G198" s="3"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
-        <v>198</v>
-      </c>
+      <c r="A199" s="3"/>
       <c r="B199" s="8"/>
-      <c r="C199" s="6" t="str">
-        <f>IF((B199=""),"",VLOOKUP(B199,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G199" s="3">
-        <v>198</v>
-      </c>
+      <c r="C199" s="6"/>
+      <c r="G199" s="3"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
-        <v>199</v>
-      </c>
+      <c r="A200" s="3"/>
       <c r="B200" s="8"/>
-      <c r="C200" s="6" t="str">
-        <f>IF((B200=""),"",VLOOKUP(B200,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G200" s="3">
-        <v>199</v>
-      </c>
+      <c r="C200" s="6"/>
+      <c r="G200" s="3"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
-        <v>200</v>
-      </c>
+      <c r="A201" s="3"/>
       <c r="B201" s="8"/>
-      <c r="C201" s="6" t="str">
-        <f>IF((B201=""),"",VLOOKUP(B201,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G201" s="3">
-        <v>200</v>
-      </c>
+      <c r="C201" s="6"/>
+      <c r="G201" s="3"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
-        <v>201</v>
-      </c>
+      <c r="A202" s="3"/>
       <c r="B202" s="8"/>
-      <c r="C202" s="6" t="str">
-        <f>IF((B202=""),"",VLOOKUP(B202,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G202" s="3">
-        <v>201</v>
-      </c>
+      <c r="C202" s="6"/>
+      <c r="G202" s="3"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
-        <v>202</v>
-      </c>
+      <c r="A203" s="3"/>
       <c r="B203" s="8"/>
-      <c r="C203" s="6" t="str">
-        <f>IF((B203=""),"",VLOOKUP(B203,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G203" s="3">
-        <v>202</v>
-      </c>
+      <c r="C203" s="6"/>
+      <c r="G203" s="3"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
-        <v>203</v>
-      </c>
+      <c r="A204" s="3"/>
       <c r="B204" s="8"/>
-      <c r="C204" s="6" t="str">
-        <f>IF((B204=""),"",VLOOKUP(B204,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G204" s="3">
-        <v>203</v>
-      </c>
+      <c r="C204" s="6"/>
+      <c r="G204" s="3"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
-        <v>204</v>
-      </c>
+      <c r="A205" s="3"/>
       <c r="B205" s="8"/>
-      <c r="C205" s="6" t="str">
-        <f>IF((B205=""),"",VLOOKUP(B205,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G205" s="3">
-        <v>204</v>
-      </c>
+      <c r="C205" s="6"/>
+      <c r="G205" s="3"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
-        <v>205</v>
-      </c>
+      <c r="A206" s="3"/>
       <c r="B206" s="8"/>
-      <c r="C206" s="6" t="str">
-        <f>IF((B206=""),"",VLOOKUP(B206,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G206" s="3">
-        <v>205</v>
-      </c>
+      <c r="C206" s="6"/>
+      <c r="G206" s="3"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
-        <v>206</v>
-      </c>
+      <c r="A207" s="3"/>
       <c r="B207" s="8"/>
-      <c r="C207" s="6" t="str">
-        <f>IF((B207=""),"",VLOOKUP(B207,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G207" s="3">
-        <v>206</v>
-      </c>
+      <c r="C207" s="6"/>
+      <c r="G207" s="3"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
-        <v>207</v>
-      </c>
+      <c r="A208" s="3"/>
       <c r="B208" s="8"/>
-      <c r="C208" s="6" t="str">
-        <f>IF((B208=""),"",VLOOKUP(B208,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G208" s="3">
-        <v>207</v>
-      </c>
+      <c r="C208" s="6"/>
+      <c r="G208" s="3"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
-        <v>208</v>
-      </c>
+      <c r="A209" s="3"/>
       <c r="B209" s="8"/>
-      <c r="C209" s="6" t="str">
-        <f>IF((B209=""),"",VLOOKUP(B209,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G209" s="3">
-        <v>208</v>
-      </c>
+      <c r="C209" s="6"/>
+      <c r="G209" s="3"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
-        <v>209</v>
-      </c>
+      <c r="A210" s="3"/>
       <c r="B210" s="8"/>
-      <c r="C210" s="6" t="str">
-        <f>IF((B210=""),"",VLOOKUP(B210,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G210" s="3">
-        <v>209</v>
-      </c>
+      <c r="C210" s="6"/>
+      <c r="G210" s="3"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
-        <v>210</v>
-      </c>
+      <c r="A211" s="3"/>
       <c r="B211" s="8"/>
-      <c r="C211" s="6" t="str">
-        <f>IF((B211=""),"",VLOOKUP(B211,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G211" s="3">
-        <v>210</v>
-      </c>
+      <c r="C211" s="6"/>
+      <c r="G211" s="3"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
-        <v>211</v>
-      </c>
+      <c r="A212" s="3"/>
       <c r="B212" s="8"/>
-      <c r="C212" s="6" t="str">
-        <f>IF((B212=""),"",VLOOKUP(B212,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G212" s="3">
-        <v>211</v>
-      </c>
+      <c r="C212" s="6"/>
+      <c r="G212" s="3"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
-        <v>212</v>
-      </c>
+      <c r="A213" s="3"/>
       <c r="B213" s="8"/>
-      <c r="C213" s="6" t="str">
-        <f>IF((B213=""),"",VLOOKUP(B213,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G213" s="3">
-        <v>212</v>
-      </c>
+      <c r="C213" s="6"/>
+      <c r="G213" s="3"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
-        <v>213</v>
-      </c>
+      <c r="A214" s="3"/>
       <c r="B214" s="8"/>
-      <c r="C214" s="6" t="str">
-        <f>IF((B214=""),"",VLOOKUP(B214,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G214" s="3">
-        <v>213</v>
-      </c>
+      <c r="C214" s="6"/>
+      <c r="G214" s="3"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
-        <v>214</v>
-      </c>
+      <c r="A215" s="3"/>
       <c r="B215" s="8"/>
-      <c r="C215" s="6" t="str">
-        <f>IF((B215=""),"",VLOOKUP(B215,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G215" s="3">
-        <v>214</v>
-      </c>
+      <c r="C215" s="6"/>
+      <c r="G215" s="3"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
-        <v>215</v>
-      </c>
+      <c r="A216" s="3"/>
       <c r="B216" s="8"/>
-      <c r="C216" s="6" t="str">
-        <f>IF((B216=""),"",VLOOKUP(B216,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G216" s="3">
-        <v>215</v>
-      </c>
+      <c r="C216" s="6"/>
+      <c r="G216" s="3"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
-        <v>216</v>
-      </c>
+      <c r="A217" s="3"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="6" t="str">
-        <f>IF((B217=""),"",VLOOKUP(B217,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G217" s="3">
-        <v>216</v>
-      </c>
+      <c r="C217" s="6"/>
+      <c r="G217" s="3"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
-        <v>217</v>
-      </c>
+      <c r="A218" s="3"/>
       <c r="B218" s="8"/>
-      <c r="C218" s="6" t="str">
-        <f>IF((B218=""),"",VLOOKUP(B218,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G218" s="3">
-        <v>217</v>
-      </c>
+      <c r="C218" s="6"/>
+      <c r="G218" s="3"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
-        <v>218</v>
-      </c>
+      <c r="A219" s="3"/>
       <c r="B219" s="8"/>
-      <c r="C219" s="6" t="str">
-        <f>IF((B219=""),"",VLOOKUP(B219,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G219" s="3">
-        <v>218</v>
-      </c>
+      <c r="C219" s="6"/>
+      <c r="G219" s="3"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
-        <v>219</v>
-      </c>
+      <c r="A220" s="3"/>
       <c r="B220" s="8"/>
-      <c r="C220" s="6" t="str">
-        <f>IF((B220=""),"",VLOOKUP(B220,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G220" s="3">
-        <v>219</v>
-      </c>
+      <c r="C220" s="6"/>
+      <c r="G220" s="3"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
-        <v>220</v>
-      </c>
+      <c r="A221" s="3"/>
       <c r="B221" s="8"/>
-      <c r="C221" s="6" t="str">
-        <f>IF((B221=""),"",VLOOKUP(B221,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G221" s="3">
-        <v>220</v>
-      </c>
+      <c r="C221" s="6"/>
+      <c r="G221" s="3"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
-        <v>221</v>
-      </c>
+      <c r="A222" s="3"/>
       <c r="B222" s="8"/>
-      <c r="C222" s="6" t="str">
-        <f>IF((B222=""),"",VLOOKUP(B222,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G222" s="3">
-        <v>221</v>
-      </c>
+      <c r="C222" s="6"/>
+      <c r="G222" s="3"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
-        <v>222</v>
-      </c>
+      <c r="A223" s="3"/>
       <c r="B223" s="8"/>
-      <c r="C223" s="6" t="str">
-        <f>IF((B223=""),"",VLOOKUP(B223,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G223" s="3">
-        <v>222</v>
-      </c>
+      <c r="C223" s="6"/>
+      <c r="G223" s="3"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
-        <v>223</v>
-      </c>
+      <c r="A224" s="3"/>
       <c r="B224" s="8"/>
-      <c r="C224" s="6" t="str">
-        <f>IF((B224=""),"",VLOOKUP(B224,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G224" s="3">
-        <v>223</v>
-      </c>
+      <c r="C224" s="6"/>
+      <c r="G224" s="3"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
-        <v>224</v>
-      </c>
+      <c r="A225" s="3"/>
       <c r="B225" s="8"/>
-      <c r="C225" s="6" t="str">
-        <f>IF((B225=""),"",VLOOKUP(B225,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G225" s="3">
-        <v>224</v>
-      </c>
+      <c r="C225" s="6"/>
+      <c r="G225" s="3"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
-        <v>225</v>
-      </c>
+      <c r="A226" s="3"/>
       <c r="B226" s="8"/>
-      <c r="C226" s="6" t="str">
-        <f>IF((B226=""),"",VLOOKUP(B226,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G226" s="3">
-        <v>225</v>
-      </c>
+      <c r="C226" s="6"/>
+      <c r="G226" s="3"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
-        <v>226</v>
-      </c>
+      <c r="A227" s="3"/>
       <c r="B227" s="8"/>
-      <c r="C227" s="6" t="str">
-        <f>IF((B227=""),"",VLOOKUP(B227,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G227" s="3">
-        <v>226</v>
-      </c>
+      <c r="C227" s="6"/>
+      <c r="G227" s="3"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
-        <v>227</v>
-      </c>
+      <c r="A228" s="3"/>
       <c r="B228" s="8"/>
-      <c r="C228" s="6" t="str">
-        <f>IF((B228=""),"",VLOOKUP(B228,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G228" s="3">
-        <v>227</v>
-      </c>
+      <c r="C228" s="6"/>
+      <c r="G228" s="3"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
-        <v>228</v>
-      </c>
+      <c r="A229" s="3"/>
       <c r="B229" s="8"/>
-      <c r="C229" s="6" t="str">
-        <f>IF((B229=""),"",VLOOKUP(B229,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G229" s="3">
-        <v>228</v>
-      </c>
+      <c r="C229" s="6"/>
+      <c r="G229" s="3"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
-        <v>229</v>
-      </c>
+      <c r="A230" s="3"/>
       <c r="B230" s="8"/>
-      <c r="C230" s="6" t="str">
-        <f>IF((B230=""),"",VLOOKUP(B230,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G230" s="3">
-        <v>229</v>
-      </c>
+      <c r="C230" s="6"/>
+      <c r="G230" s="3"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
-        <v>230</v>
-      </c>
+      <c r="A231" s="3"/>
       <c r="B231" s="8"/>
-      <c r="C231" s="6" t="str">
-        <f>IF((B231=""),"",VLOOKUP(B231,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G231" s="3">
-        <v>230</v>
-      </c>
+      <c r="C231" s="6"/>
+      <c r="G231" s="3"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
-        <v>231</v>
-      </c>
+      <c r="A232" s="3"/>
       <c r="B232" s="8"/>
-      <c r="C232" s="6" t="str">
-        <f>IF((B232=""),"",VLOOKUP(B232,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G232" s="3">
-        <v>231</v>
-      </c>
+      <c r="C232" s="6"/>
+      <c r="G232" s="3"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
-        <v>232</v>
-      </c>
+      <c r="A233" s="3"/>
       <c r="B233" s="8"/>
-      <c r="C233" s="6" t="str">
-        <f>IF((B233=""),"",VLOOKUP(B233,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G233" s="3">
-        <v>232</v>
-      </c>
+      <c r="C233" s="6"/>
+      <c r="G233" s="3"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
-        <v>233</v>
-      </c>
+      <c r="A234" s="3"/>
       <c r="B234" s="8"/>
-      <c r="C234" s="6" t="str">
-        <f>IF((B234=""),"",VLOOKUP(B234,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G234" s="3">
-        <v>233</v>
-      </c>
+      <c r="C234" s="6"/>
+      <c r="G234" s="3"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
-        <v>234</v>
-      </c>
+      <c r="A235" s="3"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="6" t="str">
-        <f>IF((B235=""),"",VLOOKUP(B235,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G235" s="3">
-        <v>234</v>
-      </c>
+      <c r="C235" s="6"/>
+      <c r="G235" s="3"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
-        <v>235</v>
-      </c>
+      <c r="A236" s="3"/>
       <c r="B236" s="8"/>
-      <c r="C236" s="6" t="str">
-        <f>IF((B236=""),"",VLOOKUP(B236,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G236" s="3">
-        <v>235</v>
-      </c>
+      <c r="C236" s="6"/>
+      <c r="G236" s="3"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
-        <v>236</v>
-      </c>
+      <c r="A237" s="3"/>
       <c r="B237" s="8"/>
-      <c r="C237" s="6" t="str">
-        <f>IF((B237=""),"",VLOOKUP(B237,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G237" s="3">
-        <v>236</v>
-      </c>
+      <c r="C237" s="6"/>
+      <c r="G237" s="3"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
-        <v>237</v>
-      </c>
+      <c r="A238" s="3"/>
       <c r="B238" s="8"/>
-      <c r="C238" s="6" t="str">
-        <f>IF((B238=""),"",VLOOKUP(B238,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G238" s="3">
-        <v>237</v>
-      </c>
+      <c r="C238" s="6"/>
+      <c r="G238" s="3"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
-        <v>238</v>
-      </c>
+      <c r="A239" s="3"/>
       <c r="B239" s="8"/>
-      <c r="C239" s="6" t="str">
-        <f>IF((B239=""),"",VLOOKUP(B239,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G239" s="3">
-        <v>238</v>
-      </c>
+      <c r="C239" s="6"/>
+      <c r="G239" s="3"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
-        <v>239</v>
-      </c>
+      <c r="A240" s="3"/>
       <c r="B240" s="8"/>
-      <c r="C240" s="6" t="str">
-        <f>IF((B240=""),"",VLOOKUP(B240,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G240" s="3">
-        <v>239</v>
-      </c>
+      <c r="C240" s="6"/>
+      <c r="G240" s="3"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
-        <v>240</v>
-      </c>
+      <c r="A241" s="3"/>
       <c r="B241" s="8"/>
-      <c r="C241" s="6" t="str">
-        <f>IF((B241=""),"",VLOOKUP(B241,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G241" s="3">
-        <v>240</v>
-      </c>
+      <c r="C241" s="6"/>
+      <c r="G241" s="3"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
-        <v>241</v>
-      </c>
+      <c r="A242" s="3"/>
       <c r="B242" s="8"/>
-      <c r="C242" s="6" t="str">
-        <f>IF((B242=""),"",VLOOKUP(B242,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G242" s="3">
-        <v>241</v>
-      </c>
+      <c r="C242" s="6"/>
+      <c r="G242" s="3"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
-        <v>242</v>
-      </c>
+      <c r="A243" s="3"/>
       <c r="B243" s="8"/>
-      <c r="C243" s="6" t="str">
-        <f>IF((B243=""),"",VLOOKUP(B243,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G243" s="3">
-        <v>242</v>
-      </c>
+      <c r="C243" s="6"/>
+      <c r="G243" s="3"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
-        <v>243</v>
-      </c>
+      <c r="A244" s="3"/>
       <c r="B244" s="8"/>
-      <c r="C244" s="6" t="str">
-        <f>IF((B244=""),"",VLOOKUP(B244,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G244" s="3">
-        <v>243</v>
-      </c>
+      <c r="C244" s="6"/>
+      <c r="G244" s="3"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
-        <v>244</v>
-      </c>
+      <c r="A245" s="3"/>
       <c r="B245" s="8"/>
-      <c r="C245" s="6" t="str">
-        <f>IF((B245=""),"",VLOOKUP(B245,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G245" s="3">
-        <v>244</v>
-      </c>
+      <c r="C245" s="6"/>
+      <c r="G245" s="3"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
-        <v>245</v>
-      </c>
+      <c r="A246" s="3"/>
       <c r="B246" s="8"/>
-      <c r="C246" s="6" t="str">
-        <f>IF((B246=""),"",VLOOKUP(B246,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G246" s="3">
-        <v>245</v>
-      </c>
+      <c r="C246" s="6"/>
+      <c r="G246" s="3"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
-        <v>246</v>
-      </c>
+      <c r="A247" s="3"/>
       <c r="B247" s="8"/>
-      <c r="C247" s="6" t="str">
-        <f>IF((B247=""),"",VLOOKUP(B247,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G247" s="3">
-        <v>246</v>
-      </c>
+      <c r="C247" s="6"/>
+      <c r="G247" s="3"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
-        <v>247</v>
-      </c>
+      <c r="A248" s="3"/>
       <c r="B248" s="8"/>
-      <c r="C248" s="6" t="str">
-        <f>IF((B248=""),"",VLOOKUP(B248,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G248" s="3">
-        <v>247</v>
-      </c>
+      <c r="C248" s="6"/>
+      <c r="G248" s="3"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
-        <v>248</v>
-      </c>
+      <c r="A249" s="3"/>
       <c r="B249" s="8"/>
-      <c r="C249" s="6" t="str">
-        <f>IF((B249=""),"",VLOOKUP(B249,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G249" s="3">
-        <v>248</v>
-      </c>
+      <c r="C249" s="6"/>
+      <c r="G249" s="3"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
-        <v>249</v>
-      </c>
+      <c r="A250" s="3"/>
       <c r="B250" s="8"/>
-      <c r="C250" s="6" t="str">
-        <f>IF((B250=""),"",VLOOKUP(B250,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G250" s="3">
-        <v>249</v>
-      </c>
+      <c r="C250" s="6"/>
+      <c r="G250" s="3"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
-        <v>250</v>
-      </c>
+      <c r="A251" s="3"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="6" t="str">
-        <f>IF((B251=""),"",VLOOKUP(B251,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G251" s="3">
-        <v>250</v>
-      </c>
+      <c r="C251" s="6"/>
+      <c r="G251" s="3"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
-        <v>251</v>
-      </c>
+      <c r="A252" s="3"/>
       <c r="B252" s="8"/>
-      <c r="C252" s="6" t="str">
-        <f>IF((B252=""),"",VLOOKUP(B252,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G252" s="3">
-        <v>251</v>
-      </c>
+      <c r="C252" s="6"/>
+      <c r="G252" s="3"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
-        <v>252</v>
-      </c>
+      <c r="A253" s="3"/>
       <c r="B253" s="8"/>
-      <c r="C253" s="6" t="str">
-        <f>IF((B253=""),"",VLOOKUP(B253,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G253" s="3">
-        <v>252</v>
-      </c>
+      <c r="C253" s="6"/>
+      <c r="G253" s="3"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
-        <v>253</v>
-      </c>
+      <c r="A254" s="3"/>
       <c r="B254" s="8"/>
-      <c r="C254" s="6" t="str">
-        <f>IF((B254=""),"",VLOOKUP(B254,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G254" s="3">
-        <v>253</v>
-      </c>
+      <c r="C254" s="6"/>
+      <c r="G254" s="3"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
-        <v>254</v>
-      </c>
+      <c r="A255" s="3"/>
       <c r="B255" s="8"/>
-      <c r="C255" s="6" t="str">
-        <f>IF((B255=""),"",VLOOKUP(B255,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G255" s="3">
-        <v>254</v>
-      </c>
+      <c r="C255" s="6"/>
+      <c r="G255" s="3"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
-        <v>255</v>
-      </c>
+      <c r="A256" s="3"/>
       <c r="B256" s="8"/>
-      <c r="C256" s="6" t="str">
-        <f>IF((B256=""),"",VLOOKUP(B256,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G256" s="3">
-        <v>255</v>
-      </c>
+      <c r="C256" s="6"/>
+      <c r="G256" s="3"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
-        <v>256</v>
-      </c>
+      <c r="A257" s="3"/>
       <c r="B257" s="8"/>
-      <c r="C257" s="6" t="str">
-        <f>IF((B257=""),"",VLOOKUP(B257,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G257" s="3">
-        <v>256</v>
-      </c>
+      <c r="C257" s="6"/>
+      <c r="G257" s="3"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
-        <v>257</v>
-      </c>
+      <c r="A258" s="3"/>
       <c r="B258" s="8"/>
-      <c r="C258" s="6" t="str">
-        <f>IF((B258=""),"",VLOOKUP(B258,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G258" s="3">
-        <v>257</v>
-      </c>
+      <c r="C258" s="6"/>
+      <c r="G258" s="3"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
-        <v>258</v>
-      </c>
+      <c r="A259" s="3"/>
       <c r="B259" s="8"/>
-      <c r="C259" s="6" t="str">
-        <f>IF((B259=""),"",VLOOKUP(B259,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G259" s="3">
-        <v>258</v>
-      </c>
+      <c r="C259" s="6"/>
+      <c r="G259" s="3"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
-        <v>259</v>
-      </c>
+      <c r="A260" s="3"/>
       <c r="B260" s="8"/>
-      <c r="C260" s="6" t="str">
-        <f>IF((B260=""),"",VLOOKUP(B260,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G260" s="3">
-        <v>259</v>
-      </c>
+      <c r="C260" s="6"/>
+      <c r="G260" s="3"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
-        <v>260</v>
-      </c>
+      <c r="A261" s="3"/>
       <c r="B261" s="8"/>
-      <c r="C261" s="6" t="str">
-        <f>IF((B261=""),"",VLOOKUP(B261,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G261" s="3">
-        <v>260</v>
-      </c>
+      <c r="C261" s="6"/>
+      <c r="G261" s="3"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
-        <v>261</v>
-      </c>
+      <c r="A262" s="3"/>
       <c r="B262" s="8"/>
-      <c r="C262" s="6" t="str">
-        <f>IF((B262=""),"",VLOOKUP(B262,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G262" s="3">
-        <v>261</v>
-      </c>
+      <c r="C262" s="6"/>
+      <c r="G262" s="3"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
-        <v>262</v>
-      </c>
+      <c r="A263" s="3"/>
       <c r="B263" s="8"/>
-      <c r="C263" s="6" t="str">
-        <f>IF((B263=""),"",VLOOKUP(B263,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G263" s="3">
-        <v>262</v>
-      </c>
+      <c r="C263" s="6"/>
+      <c r="G263" s="3"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
-        <v>263</v>
-      </c>
+      <c r="A264" s="3"/>
       <c r="B264" s="8"/>
-      <c r="C264" s="6" t="str">
-        <f>IF((B264=""),"",VLOOKUP(B264,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G264" s="3">
-        <v>263</v>
-      </c>
+      <c r="C264" s="6"/>
+      <c r="G264" s="3"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
-        <v>264</v>
-      </c>
+      <c r="A265" s="3"/>
       <c r="B265" s="8"/>
-      <c r="C265" s="6" t="str">
-        <f>IF((B265=""),"",VLOOKUP(B265,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G265" s="3">
-        <v>264</v>
-      </c>
+      <c r="C265" s="6"/>
+      <c r="G265" s="3"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
-        <v>265</v>
-      </c>
+      <c r="A266" s="3"/>
       <c r="B266" s="8"/>
-      <c r="C266" s="6" t="str">
-        <f>IF((B266=""),"",VLOOKUP(B266,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G266" s="3">
-        <v>265</v>
-      </c>
+      <c r="C266" s="6"/>
+      <c r="G266" s="3"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
-        <v>266</v>
-      </c>
+      <c r="A267" s="3"/>
       <c r="B267" s="8"/>
-      <c r="C267" s="6" t="str">
-        <f>IF((B267=""),"",VLOOKUP(B267,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G267" s="3">
-        <v>266</v>
-      </c>
+      <c r="C267" s="6"/>
+      <c r="G267" s="3"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
-        <v>267</v>
-      </c>
+      <c r="A268" s="3"/>
       <c r="B268" s="8"/>
-      <c r="C268" s="6" t="str">
-        <f>IF((B268=""),"",VLOOKUP(B268,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G268" s="3">
-        <v>267</v>
-      </c>
+      <c r="C268" s="6"/>
+      <c r="G268" s="3"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
-        <v>268</v>
-      </c>
+      <c r="A269" s="3"/>
       <c r="B269" s="8"/>
-      <c r="C269" s="6" t="str">
-        <f>IF((B269=""),"",VLOOKUP(B269,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G269" s="3">
-        <v>268</v>
-      </c>
+      <c r="C269" s="6"/>
+      <c r="G269" s="3"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
-        <v>269</v>
-      </c>
+      <c r="A270" s="3"/>
       <c r="B270" s="8"/>
-      <c r="C270" s="6" t="str">
-        <f>IF((B270=""),"",VLOOKUP(B270,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G270" s="3">
-        <v>269</v>
-      </c>
+      <c r="C270" s="6"/>
+      <c r="G270" s="3"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
-        <v>270</v>
-      </c>
+      <c r="A271" s="3"/>
       <c r="B271" s="8"/>
-      <c r="C271" s="6" t="str">
-        <f>IF((B271=""),"",VLOOKUP(B271,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G271" s="3">
-        <v>270</v>
-      </c>
+      <c r="C271" s="6"/>
+      <c r="G271" s="3"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
-        <v>271</v>
-      </c>
+      <c r="A272" s="3"/>
       <c r="B272" s="8"/>
-      <c r="C272" s="6" t="str">
-        <f>IF((B272=""),"",VLOOKUP(B272,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G272" s="3">
-        <v>271</v>
-      </c>
+      <c r="C272" s="6"/>
+      <c r="G272" s="3"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
-        <v>272</v>
-      </c>
+      <c r="A273" s="3"/>
       <c r="B273" s="8"/>
-      <c r="C273" s="6" t="str">
-        <f>IF((B273=""),"",VLOOKUP(B273,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G273" s="3">
-        <v>272</v>
-      </c>
+      <c r="C273" s="6"/>
+      <c r="G273" s="3"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
-        <v>273</v>
-      </c>
+      <c r="A274" s="3"/>
       <c r="B274" s="8"/>
-      <c r="C274" s="6" t="str">
-        <f>IF((B274=""),"",VLOOKUP(B274,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G274" s="3">
-        <v>273</v>
-      </c>
+      <c r="C274" s="6"/>
+      <c r="G274" s="3"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
-        <v>274</v>
-      </c>
+      <c r="A275" s="3"/>
       <c r="B275" s="8"/>
-      <c r="C275" s="6" t="str">
-        <f>IF((B275=""),"",VLOOKUP(B275,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G275" s="3">
-        <v>274</v>
-      </c>
+      <c r="C275" s="6"/>
+      <c r="G275" s="3"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
-        <v>275</v>
-      </c>
+      <c r="A276" s="3"/>
       <c r="B276" s="8"/>
-      <c r="C276" s="6" t="str">
-        <f>IF((B276=""),"",VLOOKUP(B276,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G276" s="3">
-        <v>275</v>
-      </c>
+      <c r="C276" s="6"/>
+      <c r="G276" s="3"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
-        <v>276</v>
-      </c>
+      <c r="A277" s="3"/>
       <c r="B277" s="8"/>
-      <c r="C277" s="6" t="str">
-        <f>IF((B277=""),"",VLOOKUP(B277,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G277" s="3">
-        <v>276</v>
-      </c>
+      <c r="C277" s="6"/>
+      <c r="G277" s="3"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
-        <v>277</v>
-      </c>
+      <c r="A278" s="3"/>
       <c r="B278" s="8"/>
-      <c r="C278" s="6" t="str">
-        <f>IF((B278=""),"",VLOOKUP(B278,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G278" s="3">
-        <v>277</v>
-      </c>
+      <c r="C278" s="6"/>
+      <c r="G278" s="3"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
-        <v>278</v>
-      </c>
+      <c r="A279" s="3"/>
       <c r="B279" s="8"/>
-      <c r="C279" s="6" t="str">
-        <f>IF((B279=""),"",VLOOKUP(B279,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G279" s="3">
-        <v>278</v>
-      </c>
+      <c r="C279" s="6"/>
+      <c r="G279" s="3"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
-        <v>279</v>
-      </c>
+      <c r="A280" s="3"/>
       <c r="B280" s="8"/>
-      <c r="C280" s="6" t="str">
-        <f>IF((B280=""),"",VLOOKUP(B280,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G280" s="3">
-        <v>279</v>
-      </c>
+      <c r="C280" s="6"/>
+      <c r="G280" s="3"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="3">
-        <v>280</v>
-      </c>
+      <c r="A281" s="3"/>
       <c r="B281" s="8"/>
-      <c r="C281" s="6" t="str">
-        <f>IF((B281=""),"",VLOOKUP(B281,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G281" s="3">
-        <v>280</v>
-      </c>
+      <c r="C281" s="6"/>
+      <c r="G281" s="3"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
-        <v>281</v>
-      </c>
+      <c r="A282" s="3"/>
       <c r="B282" s="8"/>
-      <c r="C282" s="6" t="str">
-        <f>IF((B282=""),"",VLOOKUP(B282,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G282" s="3">
-        <v>281</v>
-      </c>
+      <c r="C282" s="6"/>
+      <c r="G282" s="3"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
-        <v>282</v>
-      </c>
+      <c r="A283" s="3"/>
       <c r="B283" s="8"/>
-      <c r="C283" s="6" t="str">
-        <f>IF((B283=""),"",VLOOKUP(B283,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G283" s="3">
-        <v>282</v>
-      </c>
+      <c r="C283" s="6"/>
+      <c r="G283" s="3"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
-        <v>283</v>
-      </c>
+      <c r="A284" s="3"/>
       <c r="B284" s="8"/>
-      <c r="C284" s="6" t="str">
-        <f>IF((B284=""),"",VLOOKUP(B284,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G284" s="3">
-        <v>283</v>
-      </c>
+      <c r="C284" s="6"/>
+      <c r="G284" s="3"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="3">
-        <v>284</v>
-      </c>
+      <c r="A285" s="3"/>
       <c r="B285" s="8"/>
-      <c r="C285" s="6" t="str">
-        <f>IF((B285=""),"",VLOOKUP(B285,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G285" s="3">
-        <v>284</v>
-      </c>
+      <c r="C285" s="6"/>
+      <c r="G285" s="3"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
-        <v>285</v>
-      </c>
+      <c r="A286" s="3"/>
       <c r="B286" s="8"/>
-      <c r="C286" s="6" t="str">
-        <f>IF((B286=""),"",VLOOKUP(B286,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G286" s="3">
-        <v>285</v>
-      </c>
+      <c r="C286" s="6"/>
+      <c r="G286" s="3"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
-        <v>286</v>
-      </c>
+      <c r="A287" s="3"/>
       <c r="B287" s="8"/>
-      <c r="C287" s="6" t="str">
-        <f>IF((B287=""),"",VLOOKUP(B287,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G287" s="3">
-        <v>286</v>
-      </c>
+      <c r="C287" s="6"/>
+      <c r="G287" s="3"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
-        <v>287</v>
-      </c>
+      <c r="A288" s="3"/>
       <c r="B288" s="8"/>
-      <c r="C288" s="6" t="str">
-        <f>IF((B288=""),"",VLOOKUP(B288,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G288" s="3">
-        <v>287</v>
-      </c>
+      <c r="C288" s="6"/>
+      <c r="G288" s="3"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
-        <v>288</v>
-      </c>
+      <c r="A289" s="3"/>
       <c r="B289" s="8"/>
-      <c r="C289" s="6" t="str">
-        <f>IF((B289=""),"",VLOOKUP(B289,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G289" s="3">
-        <v>288</v>
-      </c>
+      <c r="C289" s="6"/>
+      <c r="G289" s="3"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
-        <v>289</v>
-      </c>
+      <c r="A290" s="3"/>
       <c r="B290" s="8"/>
-      <c r="C290" s="6" t="str">
-        <f>IF((B290=""),"",VLOOKUP(B290,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G290" s="3">
-        <v>289</v>
-      </c>
+      <c r="C290" s="6"/>
+      <c r="G290" s="3"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
-        <v>290</v>
-      </c>
+      <c r="A291" s="3"/>
       <c r="B291" s="8"/>
-      <c r="C291" s="6" t="str">
-        <f>IF((B291=""),"",VLOOKUP(B291,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G291" s="3">
-        <v>290</v>
-      </c>
+      <c r="C291" s="6"/>
+      <c r="G291" s="3"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
-        <v>291</v>
-      </c>
+      <c r="A292" s="3"/>
       <c r="B292" s="8"/>
-      <c r="C292" s="6" t="str">
-        <f>IF((B292=""),"",VLOOKUP(B292,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G292" s="3">
-        <v>291</v>
-      </c>
+      <c r="C292" s="6"/>
+      <c r="G292" s="3"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
-        <v>292</v>
-      </c>
+      <c r="A293" s="3"/>
       <c r="B293" s="8"/>
-      <c r="C293" s="6" t="str">
-        <f>IF((B293=""),"",VLOOKUP(B293,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G293" s="3">
-        <v>292</v>
-      </c>
+      <c r="C293" s="6"/>
+      <c r="G293" s="3"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
-        <v>293</v>
-      </c>
+      <c r="A294" s="3"/>
       <c r="B294" s="8"/>
-      <c r="C294" s="6" t="str">
-        <f>IF((B294=""),"",VLOOKUP(B294,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G294" s="3">
-        <v>293</v>
-      </c>
+      <c r="C294" s="6"/>
+      <c r="G294" s="3"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
-        <v>294</v>
-      </c>
+      <c r="A295" s="3"/>
       <c r="B295" s="8"/>
-      <c r="C295" s="6" t="str">
-        <f>IF((B295=""),"",VLOOKUP(B295,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G295" s="3">
-        <v>294</v>
-      </c>
+      <c r="C295" s="6"/>
+      <c r="G295" s="3"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
-        <v>295</v>
-      </c>
+      <c r="A296" s="3"/>
       <c r="B296" s="8"/>
-      <c r="C296" s="6" t="str">
-        <f>IF((B296=""),"",VLOOKUP(B296,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G296" s="3">
-        <v>295</v>
-      </c>
+      <c r="C296" s="6"/>
+      <c r="G296" s="3"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
-        <v>296</v>
-      </c>
+      <c r="A297" s="3"/>
       <c r="B297" s="8"/>
-      <c r="C297" s="6" t="str">
-        <f>IF((B297=""),"",VLOOKUP(B297,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G297" s="3">
-        <v>296</v>
-      </c>
+      <c r="C297" s="6"/>
+      <c r="G297" s="3"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
-        <v>297</v>
-      </c>
+      <c r="A298" s="3"/>
       <c r="B298" s="8"/>
-      <c r="C298" s="6" t="str">
-        <f>IF((B298=""),"",VLOOKUP(B298,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G298" s="3">
-        <v>297</v>
-      </c>
+      <c r="C298" s="6"/>
+      <c r="G298" s="3"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
-        <v>298</v>
-      </c>
+      <c r="A299" s="3"/>
       <c r="B299" s="8"/>
-      <c r="C299" s="6" t="str">
-        <f>IF((B299=""),"",VLOOKUP(B299,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G299" s="3">
-        <v>298</v>
-      </c>
+      <c r="C299" s="6"/>
+      <c r="G299" s="3"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
-        <v>299</v>
-      </c>
+      <c r="A300" s="3"/>
       <c r="B300" s="8"/>
-      <c r="C300" s="6" t="str">
-        <f>IF((B300=""),"",VLOOKUP(B300,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G300" s="3">
-        <v>299</v>
-      </c>
+      <c r="C300" s="6"/>
+      <c r="G300" s="3"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
-        <v>300</v>
-      </c>
+      <c r="A301" s="3"/>
       <c r="B301" s="8"/>
-      <c r="C301" s="6" t="str">
-        <f>IF((B301=""),"",VLOOKUP(B301,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G301" s="3">
-        <v>300</v>
-      </c>
+      <c r="C301" s="6"/>
+      <c r="G301" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8166,7 +5466,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -8175,11 +5475,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -8191,11 +5491,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -8240,7 +5540,7 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -8261,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
@@ -8272,10 +5572,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -8293,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>35</v>
@@ -8307,44 +5607,44 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
@@ -8353,15 +5653,15 @@
         <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
@@ -8370,32 +5670,32 @@
         <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>34</v>
@@ -8404,12 +5704,12 @@
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
@@ -8421,7 +5721,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>34</v>
@@ -8433,37 +5733,37 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="O15" s="9"/>
     </row>
@@ -8472,10 +5772,10 @@
         <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
@@ -8483,7 +5783,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -8491,7 +5791,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
@@ -8507,7 +5807,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -8531,7 +5831,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -8539,7 +5839,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -8552,31 +5852,31 @@
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>44</v>
@@ -8603,7 +5903,7 @@
         <v>54</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -8611,7 +5911,7 @@
         <v>54</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -8624,39 +5924,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>44</v>

--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2B7DA4-3DC8-46D5-A164-A8E736DD2FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2538BBE8-F378-4431-97BD-D3860C1AECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -466,12 +466,6 @@
     <t>AddEvent</t>
   </si>
   <si>
-    <t>Add a copy of "CEAO's Designation Intake | Submission of Draft CEAO's Designation Application" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
-    <t>Add a copy of "CEAO's Designation Intake | Draft CEAO's Designation Application Initial Review" to thisPhase at thisEventACTUAL +35</t>
-  </si>
-  <si>
     <t>SetPhasesStatus</t>
   </si>
   <si>
@@ -697,12 +691,6 @@
     <t>{"phase_name":"CEAO's Designation Review","work_type_id": 3, "ea_act_id": 3, "event_name": "CEAO's Designation Application Received", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 3, "ea_act_id": 3, "event_name": "Submission of Draft CEAO's Designation Application", "start_at": 28 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"CEAO's Designation Intake","work_type_id": 3, "ea_act_id": 3, "event_name": "Draft CEAO's Designation Application Initial Review", "start_at": 35 }</t>
-  </si>
-  <si>
     <t>Visibility</t>
   </si>
   <si>
@@ -719,6 +707,12 @@
   </si>
   <si>
     <t>{"all_future_phases":false}</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"CEAO's Designation Intake","work_type_id": 3, "ea_act_id": 3, "event_name": "Submission of Draft CEAO's Designation Application", "start_at": 28 },{"phase_name":"CEAO's Designation Intake","work_type_id": 3, "ea_act_id": 3, "event_name": "Draft CEAO's Designation Application Initial Review", "start_at": 7 }]</t>
+  </si>
+  <si>
+    <t>Add a copy of "CEAO's Designation Intake | Submission of Draft CEAO's Designation Application, Draft CEAO's Designation Application Initial Review" to thisPhase at thisEventACTUAL +28</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -1402,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1431,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1460,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1645,7 +1639,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -1654,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1693,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -1732,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -1771,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -1810,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -1849,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -1888,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -1927,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -1966,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2005,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2044,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -2083,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -2125,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -2164,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -2206,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -2245,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -2284,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -2323,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -2362,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -2404,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -2443,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -2482,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -2524,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -2563,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -2605,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -2644,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -2683,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -2725,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -2767,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -3058,13 +3052,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3120,7 +3114,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3141,10 +3135,10 @@
         <v>83</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -3152,31 +3146,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
         <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>IF((B4=""),"",VLOOKUP(B4,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Initial Review of "Draft" CEAO's Designation is NEGATIVE</v>
+        <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
@@ -3186,21 +3180,21 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
@@ -3210,21 +3204,21 @@
         <v>Proponent withdraws Submission from the CEAO's Designation process</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8">
         <v>3</v>
@@ -3240,22 +3234,22 @@
         <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Proponent withdraws Submission from the CEAO's Designation process</v>
+        <v>Starts the "clock" for CEAO's Designation</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>91</v>
@@ -3264,39 +3258,39 @@
         <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>IF((B9=""),"",VLOOKUP(B9,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Starts the "clock" for CEAO's Designation</v>
+        <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -3306,21 +3300,21 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
@@ -3330,21 +3324,21 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>154</v>
       </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8">
         <v>5</v>
@@ -3357,42 +3351,42 @@
         <v>89</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>IF((B13=""),"",VLOOKUP(B13,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G13" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8">
         <v>6</v>
@@ -3402,21 +3396,21 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8">
         <v>6</v>
@@ -3426,21 +3420,21 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>88</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8">
         <v>6</v>
@@ -3456,39 +3450,39 @@
         <v>90</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Proponent withdraws Project from CEAO's Designation process</v>
+        <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8">
         <v>7</v>
@@ -3498,21 +3492,21 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="8">
         <v>7</v>
@@ -3522,21 +3516,21 @@
         <v>Assessment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>154</v>
       </c>
       <c r="G19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8">
         <v>7</v>
@@ -3549,42 +3543,42 @@
         <v>89</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6" t="str">
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Assessment is Terminated under s.39(d) of Act</v>
+        <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8">
         <v>8</v>
@@ -3594,21 +3588,21 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8">
         <v>8</v>
@@ -3618,21 +3612,21 @@
         <v>Proponent withdraws Project from CEAO's Designation process</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8">
         <v>8</v>
@@ -3648,39 +3642,39 @@
         <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Proponent withdraws Project from CEAO's Designation process</v>
+        <v>Designate Project as Reviewable</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8">
         <v>9</v>
@@ -3690,45 +3684,45 @@
         <v>Designate Project as Reviewable</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Designate Project as Reviewable</v>
+        <v>Decline to Designate Project as Reviewable</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8">
         <v>10</v>
@@ -3741,38 +3735,20 @@
         <v>89</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6" t="str">
-        <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$11,4,FALSE))</f>
-        <v>Decline to Designate Project as Reviewable</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="3">
-        <v>28</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -5399,12 +5375,6 @@
       <c r="B300" s="8"/>
       <c r="C300" s="6"/>
       <c r="G300" s="3"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="3"/>
-      <c r="B301" s="8"/>
-      <c r="C301" s="6"/>
-      <c r="G301" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5415,7 +5385,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B301</xm:sqref>
+          <xm:sqref>B2:B300</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5466,7 +5436,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
@@ -5475,11 +5445,11 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="1" t="s">
@@ -5491,11 +5461,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -5540,7 +5510,7 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -5561,10 +5531,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
@@ -5572,10 +5542,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
@@ -5593,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>35</v>
@@ -5607,44 +5577,44 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
@@ -5653,15 +5623,15 @@
         <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>34</v>
@@ -5670,32 +5640,32 @@
         <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>34</v>
@@ -5704,12 +5674,12 @@
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
@@ -5721,7 +5691,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>34</v>
@@ -5733,37 +5703,37 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O15" s="9"/>
     </row>
@@ -5772,10 +5742,10 @@
         <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
@@ -5783,7 +5753,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -5791,7 +5761,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
@@ -5807,7 +5777,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -5831,7 +5801,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -5839,7 +5809,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -5852,31 +5822,31 @@
     </row>
     <row r="26" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H28" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H29" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>44</v>
@@ -5903,7 +5873,7 @@
         <v>54</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -5911,7 +5881,7 @@
         <v>54</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -5924,39 +5894,39 @@
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H35" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H37" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H38" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H39" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>44</v>

--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA428D-0563-4AB5-9AD5-DE1D8744CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12945" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -14,7 +20,20 @@
     <sheet name="Actions" sheetId="6" r:id="rId5"/>
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -712,14 +731,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,150 +779,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -933,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,19 +811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,194 +850,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1191,251 +874,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1488,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1496,61 +937,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color theme="0"/>
       </font>
@@ -1560,28 +965,19 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
+      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1839,26 +1235,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="0.799981688894314"/>
+    <tabColor theme="9" tint="0.79995117038483843"/>
   </sheetPr>
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="2:2">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1881,62 +1276,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="21" spans="2:2">
+    <row r="8" spans="2:3" ht="21">
       <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="2:2">
+    <row r="12" spans="2:3" ht="21">
       <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G4"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.66666666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="5" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="6.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="14.6328125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>21</v>
@@ -2040,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>21</v>
@@ -2052,37 +1444,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:9">
       <c r="B6"/>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:9">
       <c r="B7"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:9">
       <c r="B8"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:9">
       <c r="B9"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:9">
       <c r="B10"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:9">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:9">
       <c r="B12"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:9">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:9">
       <c r="B14"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:9">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:9">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2">
@@ -2152,50 +1544,60 @@
       <c r="B38"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Lookups!$B$3:$B$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
-      <formula1>Lookups!$D$3:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>Lookups!$F$3:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$B$3:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$D$3:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$F$3:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.66666666666667" style="6" customWidth="1"/>
-    <col min="2" max="3" width="10.6666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="9" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" style="3" customWidth="1"/>
-    <col min="11" max="12" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="6.6328125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="70.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="14.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="14.6328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3351,58 +2753,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="END">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="START">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="START">
       <formula>NOT(ISERROR(SEARCH("START",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C29">
-      <formula1>Phases!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H29">
-      <formula1>Lookups!$Q$3:$Q$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29">
-      <formula1>Lookups!$I$3:$I$39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I29">
-      <formula1>Lookups!$S$3:$S$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
-      <formula1>Lookups!$K$3:$K$9</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Phases!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$Q$3:$Q$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$I$3:$I$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$S$3:$S$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$K$3:$K$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="4" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="6.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="70.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3600,42 +3018,46 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11">
-      <formula1>Events!$A$2:$A$29</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Events!$A$2:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.88571428571429" style="3"/>
-    <col min="2" max="2" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="8.90625" style="3"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="70.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5939,55 +5361,59 @@
       <c r="G300" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B300">
-      <formula1>Outcomes!$A$2:$A$11</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>Outcomes!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B300</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor theme="7" tint="0.799981688894314"/>
+    <tabColor theme="7" tint="0.79995117038483843"/>
   </sheetPr>
   <dimension ref="A1:BG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.6666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="20" max="58" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="59" max="59" width="8.88571428571429" style="1"/>
-    <col min="60" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="1" customWidth="1"/>
+    <col min="20" max="58" width="3.6328125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="8.90625" style="1"/>
+    <col min="60" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="2" s="2" customFormat="1" spans="1:59">
+    <row r="1" spans="1:59" s="1" customFormat="1"/>
+    <row r="2" spans="1:59" s="2" customFormat="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -6066,7 +5492,7 @@
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="1:59">
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
@@ -6098,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="1:59">
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
@@ -6130,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="1:59">
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -6153,7 +5579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="1:59">
       <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
@@ -6170,7 +5596,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="1:59">
       <c r="B7" s="3" t="s">
         <v>132</v>
       </c>
@@ -6187,7 +5613,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="1:59">
       <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
@@ -6204,7 +5630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="1:59">
       <c r="B9" s="3" t="s">
         <v>138</v>
       </c>
@@ -6221,7 +5647,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="1:59">
       <c r="B10" s="3" t="s">
         <v>142</v>
       </c>
@@ -6235,7 +5661,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="1:59">
       <c r="B11" s="3" t="s">
         <v>144</v>
       </c>
@@ -6247,7 +5673,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="1:59">
       <c r="B12" s="3" t="s">
         <v>145</v>
       </c>
@@ -6259,7 +5685,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="1:59">
       <c r="B13" s="3" t="s">
         <v>146</v>
       </c>
@@ -6271,7 +5697,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="1:59">
       <c r="B14" s="3" t="s">
         <v>148</v>
       </c>
@@ -6283,7 +5709,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="1:59">
       <c r="B15" s="3" t="s">
         <v>150</v>
       </c>
@@ -6295,7 +5721,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:59">
       <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
@@ -6491,15 +5917,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="O3:O15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:O15">
     <sortCondition ref="O3:O15"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$3:$K$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA428D-0563-4AB5-9AD5-DE1D8744CC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12945" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -20,20 +14,7 @@
     <sheet name="Actions" sheetId="6" r:id="rId5"/>
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -731,8 +712,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +766,150 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -802,7 +933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,19 +942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,8 +981,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -874,9 +1191,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -929,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -937,13 +1496,73 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <i val="0"/>
         <color theme="0"/>
       </font>
@@ -953,31 +1572,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFCCFFCC"/>
+      <color rgb="00CCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1235,25 +1839,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor theme="9" tint="0.79995117038483843"/>
+    <tabColor theme="9" tint="0.799981688894314"/>
   </sheetPr>
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" ht="21" spans="2:2">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1276,59 +1881,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21">
+    <row r="8" ht="21" spans="2:2">
       <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21">
+    <row r="12" ht="21" spans="2:2">
       <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="14.6328125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="6.66666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="5" width="14.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88571428571429" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>21</v>
@@ -1432,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>21</v>
@@ -1444,37 +2052,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="2:2">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="2:2">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="2:2">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="2:2">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="2:2">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="2:2">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="2:2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="2:2">
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="2:2">
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="2:2">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2">
@@ -1544,60 +2152,50 @@
       <c r="B38"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+      <formula1>Lookups!$B$3:$B$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>Lookups!$D$3:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+      <formula1>Lookups!$F$3:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>Lookups!$B$3:$B$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>Lookups!$D$3:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Lookups!$F$3:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="10.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="70.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="14.6328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="14.6328125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="6.66666666666667" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.6666666666667" style="6" customWidth="1"/>
+    <col min="4" max="4" width="70.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.6666666666667" style="3" customWidth="1"/>
+    <col min="7" max="9" width="14.6666666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6666666666667" style="3" customWidth="1"/>
+    <col min="11" max="12" width="14.6666666666667" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.6666666666667" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88571428571429" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" s="2" customFormat="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2753,74 +3351,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H29">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="START">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="START">
       <formula>NOT(ISERROR(SEARCH("START",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C29">
+      <formula1>Phases!$A$2:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H29">
+      <formula1>Lookups!$Q$3:$Q$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29">
+      <formula1>Lookups!$I$3:$I$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I29">
+      <formula1>Lookups!$S$3:$S$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
+      <formula1>Lookups!$K$3:$K$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>Phases!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>Lookups!$Q$3:$Q$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
-          <x14:formula1>
-            <xm:f>Lookups!$I$3:$I$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
-          <x14:formula1>
-            <xm:f>Lookups!$S$3:$S$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
-          <x14:formula1>
-            <xm:f>Lookups!$K$3:$K$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G29</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="70.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="6.66666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="4" width="70.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88571428571429" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" s="2" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3018,46 +3600,42 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11">
+      <formula1>Events!$A$2:$A$29</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
-          <x14:formula1>
-            <xm:f>Events!$A$2:$A$29</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="3"/>
-    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="8.88571428571429" style="3"/>
+    <col min="2" max="2" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="70.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.6666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88571428571429" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" s="2" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5361,59 +5939,55 @@
       <c r="G300" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B300">
+      <formula1>Outcomes!$A$2:$A$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>Outcomes!$A$2:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B300</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor theme="7" tint="0.79995117038483843"/>
+    <tabColor theme="7" tint="0.799981688894314"/>
   </sheetPr>
   <dimension ref="A1:BG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.6328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.6328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6328125" style="1" customWidth="1"/>
-    <col min="20" max="58" width="3.6328125" style="1" customWidth="1"/>
-    <col min="59" max="59" width="8.90625" style="1"/>
-    <col min="60" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.6666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="20" max="58" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="59" max="59" width="8.88571428571429" style="1"/>
+    <col min="60" max="16384" width="8.88571428571429" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1"/>
-    <row r="2" spans="1:59" s="2" customFormat="1">
+    <row r="1" s="1" customFormat="1"/>
+    <row r="2" s="2" customFormat="1" spans="1:59">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -5492,7 +6066,7 @@
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="2:19">
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
@@ -5524,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="2:19">
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
@@ -5556,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="2:17">
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -5579,7 +6153,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="2:15">
       <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
@@ -5596,7 +6170,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="2:15">
       <c r="B7" s="3" t="s">
         <v>132</v>
       </c>
@@ -5613,7 +6187,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="2:15">
       <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
@@ -5630,7 +6204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="2:15">
       <c r="B9" s="3" t="s">
         <v>138</v>
       </c>
@@ -5647,7 +6221,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="2:15">
       <c r="B10" s="3" t="s">
         <v>142</v>
       </c>
@@ -5661,7 +6235,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="2:15">
       <c r="B11" s="3" t="s">
         <v>144</v>
       </c>
@@ -5673,7 +6247,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="2:15">
       <c r="B12" s="3" t="s">
         <v>145</v>
       </c>
@@ -5685,7 +6259,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="2:15">
       <c r="B13" s="3" t="s">
         <v>146</v>
       </c>
@@ -5697,7 +6271,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="2:15">
       <c r="B14" s="3" t="s">
         <v>148</v>
       </c>
@@ -5709,7 +6283,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="2:15">
       <c r="B15" s="3" t="s">
         <v>150</v>
       </c>
@@ -5721,7 +6295,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="2:9">
       <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
@@ -5917,14 +6491,15 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:O15">
+  <sortState ref="O3:O15">
     <sortCondition ref="O3:O15"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39">
       <formula1>$K$3:$K$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/ceao_designation/001-CEAO_Designation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\ceao_designation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC6A26-E30E-4A72-91F9-C7D19A6DE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12945" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -14,7 +20,20 @@
     <sheet name="Actions" sheetId="6" r:id="rId5"/>
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -712,14 +731,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,150 +779,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -933,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,19 +811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,194 +850,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1191,251 +874,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1488,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1496,61 +937,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <color theme="0"/>
       </font>
@@ -1560,28 +965,19 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
+      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1839,26 +1235,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="0.799981688894314"/>
+    <tabColor theme="9" tint="0.79995117038483843"/>
   </sheetPr>
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="2:2">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1881,62 +1276,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="21" spans="2:2">
+    <row r="8" spans="2:3" ht="21">
       <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="2:2">
+    <row r="12" spans="2:3" ht="21">
       <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.66666666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="5" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="8" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="6.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="14.6328125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="12.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2052,37 +1444,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:9">
       <c r="B6"/>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:9">
       <c r="B7"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:9">
       <c r="B8"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:9">
       <c r="B9"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:9">
       <c r="B10"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:9">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:9">
       <c r="B12"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:9">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:9">
       <c r="B14"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:9">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:9">
       <c r="B16"/>
     </row>
     <row r="17" spans="2:2">
@@ -2152,50 +1544,60 @@
       <c r="B38"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>Lookups!$B$3:$B$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
-      <formula1>Lookups!$D$3:$D$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>Lookups!$F$3:$F$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$B$3:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$D$3:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$F$3:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.66666666666667" style="6" customWidth="1"/>
-    <col min="2" max="3" width="10.6666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="9" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6666666666667" style="3" customWidth="1"/>
-    <col min="11" max="12" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="6.6328125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="70.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="14.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="14.6328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3351,58 +2753,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="END">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="END">
       <formula>NOT(ISERROR(SEARCH("END",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="START">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="START">
       <formula>NOT(ISERROR(SEARCH("START",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C29">
-      <formula1>Phases!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H29">
-      <formula1>Lookups!$Q$3:$Q$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29">
-      <formula1>Lookups!$I$3:$I$39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I29">
-      <formula1>Lookups!$S$3:$S$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
-      <formula1>Lookups!$K$3:$K$9</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Phases!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$Q$3:$Q$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$I$3:$I$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$S$3:$S$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+          <x14:formula1>
+            <xm:f>Lookups!$K$3:$K$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="4" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="6.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="70.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3600,42 +3018,46 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11">
-      <formula1>Events!$A$2:$A$29</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Events!$A$2:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.88571428571429" style="3"/>
-    <col min="2" max="2" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.6666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="8.90625" style="3"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="70.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -5939,55 +5361,59 @@
       <c r="G300" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B300">
-      <formula1>Outcomes!$A$2:$A$11</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>Outcomes!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B300</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor theme="7" tint="0.799981688894314"/>
+    <tabColor theme="7" tint="0.79995117038483843"/>
   </sheetPr>
   <dimension ref="A1:BG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.6666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="20" max="58" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="59" max="59" width="8.88571428571429" style="1"/>
-    <col min="60" max="16384" width="8.88571428571429" style="3"/>
+    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="1" customWidth="1"/>
+    <col min="20" max="58" width="3.6328125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="8.90625" style="1"/>
+    <col min="60" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="2" s="2" customFormat="1" spans="1:59">
+    <row r="1" spans="1:59" s="1" customFormat="1"/>
+    <row r="2" spans="1:59" s="2" customFormat="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -6066,7 +5492,7 @@
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="1:59">
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
@@ -6098,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="1:59">
       <c r="B4" s="3" t="s">
         <v>121</v>
       </c>
@@ -6130,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="1:59">
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -6153,7 +5579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="1:59">
       <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
@@ -6170,7 +5596,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="1:59">
       <c r="B7" s="3" t="s">
         <v>132</v>
       </c>
@@ -6187,7 +5613,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="1:59">
       <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
@@ -6204,7 +5630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="1:59">
       <c r="B9" s="3" t="s">
         <v>138</v>
       </c>
@@ -6221,7 +5647,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="1:59">
       <c r="B10" s="3" t="s">
         <v>142</v>
       </c>
@@ -6235,7 +5661,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="1:59">
       <c r="B11" s="3" t="s">
         <v>144</v>
       </c>
@@ -6247,7 +5673,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="1:59">
       <c r="B12" s="3" t="s">
         <v>145</v>
       </c>
@@ -6259,7 +5685,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="1:59">
       <c r="B13" s="3" t="s">
         <v>146</v>
       </c>
@@ -6271,7 +5697,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="1:59">
       <c r="B14" s="3" t="s">
         <v>148</v>
       </c>
@@ -6283,7 +5709,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="1:59">
       <c r="B15" s="3" t="s">
         <v>150</v>
       </c>
@@ -6295,7 +5721,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:59">
       <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
@@ -6491,15 +5917,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="O3:O15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:O15">
     <sortCondition ref="O3:O15"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H39" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$3:$K$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>